--- a/0_Configuration/Foundation/Dummy_survey_data.xlsx
+++ b/0_Configuration/Foundation/Dummy_survey_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/royuijtendaal_tudelft_nl/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="229" documentId="11_BC306F1EC3D654026F15A6DB943E8C1851039F55" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FE1F1D8-6E8C-4054-974F-19F0CCDBE40B}"/>
+  <xr:revisionPtr revIDLastSave="263" documentId="11_BC306F1EC3D654026F15A6DB943E8C1851039F55" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD59EFB4-F7D6-4550-B427-C0BA86713DBF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="142">
   <si>
     <t>TVJuCSlpMECM04q0LeCIewSGhfaBZ39GnlLa7HxNxghURTFPTUZUMkZGRTBIUk5WM1Y0SENZR0NMNi4u</t>
   </si>
@@ -87,33 +87,21 @@
     <t>Daily</t>
   </si>
   <si>
-    <t>36</t>
-  </si>
-  <si>
     <t>Bierocracy</t>
   </si>
   <si>
     <t>Shop</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>Roy</t>
   </si>
   <si>
     <t>Workshop</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
     <t>John</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
     <t>Floor</t>
   </si>
   <si>
@@ -135,9 +123,6 @@
     <t>Mary</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>Olivia</t>
   </si>
   <si>
@@ -475,6 +460,9 @@
   </si>
   <si>
     <t>Hamish</t>
+  </si>
+  <si>
+    <t>Bob</t>
   </si>
 </sst>
 </file>
@@ -1409,10 +1397,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0664D784-8D36-45F1-B113-7E81F546C508}">
-  <dimension ref="A1:J126"/>
+  <dimension ref="A1:J132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1485,13 +1473,13 @@
         <v>15</v>
       </c>
       <c r="H3" s="4">
-        <v>9</v>
-      </c>
-      <c r="I3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="5">
+        <v>36</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1508,19 +1496,19 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="4">
+        <v>7</v>
+      </c>
+      <c r="I4" s="5">
+        <v>45</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1537,19 +1525,19 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="4">
-        <v>1</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
+      </c>
+      <c r="I5" s="5">
+        <v>18</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1566,19 +1554,19 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="4">
-        <v>12</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>24</v>
+        <v>7</v>
+      </c>
+      <c r="I6" s="5">
+        <v>27</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1595,19 +1583,19 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="4">
+        <v>7</v>
+      </c>
+      <c r="I7" s="5">
         <v>18</v>
       </c>
-      <c r="G7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="4">
-        <v>2</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="J7" s="5" t="s">
-        <v>27</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1632,11 +1620,11 @@
       <c r="H8" s="4">
         <v>7</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="5">
+        <v>27</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1653,19 +1641,19 @@
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="4">
-        <v>1</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>16</v>
+        <v>7</v>
+      </c>
+      <c r="I9" s="5">
+        <v>36</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1682,19 +1670,19 @@
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="4">
+        <v>7</v>
+      </c>
+      <c r="I10" s="5">
+        <v>9</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="H10" s="4">
-        <v>2</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1711,19 +1699,19 @@
         <v>13</v>
       </c>
       <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="4">
+        <v>7</v>
+      </c>
+      <c r="I11" s="5">
         <v>18</v>
       </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="4">
-        <v>1</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="J11" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1743,16 +1731,16 @@
         <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="H12" s="4">
+        <v>7</v>
+      </c>
+      <c r="I12" s="5">
+        <v>18</v>
+      </c>
       <c r="J12" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1775,14 +1763,14 @@
       <c r="G13" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="4">
         <v>7</v>
       </c>
       <c r="I13" s="6">
         <v>9</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1800,19 +1788,19 @@
       </c>
       <c r="E14" s="3"/>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="6">
-        <v>7</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="H14" s="4">
+        <v>7</v>
+      </c>
+      <c r="I14" s="5">
+        <v>36</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1830,19 +1818,19 @@
       </c>
       <c r="E15" s="3"/>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G15" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="6">
-        <v>7</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>19</v>
+      <c r="H15" s="4">
+        <v>7</v>
+      </c>
+      <c r="I15" s="5">
+        <v>9</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1860,19 +1848,19 @@
       </c>
       <c r="E16" s="3"/>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G16" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="6">
-        <v>7</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>22</v>
+      <c r="H16" s="4">
+        <v>7</v>
+      </c>
+      <c r="I16" s="5">
+        <v>45</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1890,19 +1878,19 @@
       </c>
       <c r="E17" s="3"/>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="6">
-        <v>7</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="H17" s="4">
+        <v>7</v>
+      </c>
+      <c r="I17" s="5">
+        <v>27</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1925,14 +1913,14 @@
       <c r="G18" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="6">
-        <v>7</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>22</v>
+      <c r="H18" s="4">
+        <v>7</v>
+      </c>
+      <c r="I18" s="5">
+        <v>18</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1950,19 +1938,19 @@
       </c>
       <c r="E19" s="3"/>
       <c r="F19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="6">
-        <v>7</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>24</v>
+      <c r="H19" s="4">
+        <v>7</v>
+      </c>
+      <c r="I19" s="5">
+        <v>27</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1980,19 +1968,19 @@
       </c>
       <c r="E20" s="3"/>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="6">
-        <v>7</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="H20" s="4">
+        <v>7</v>
+      </c>
+      <c r="I20" s="5">
+        <v>36</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -2010,19 +1998,19 @@
       </c>
       <c r="E21" s="3"/>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G21" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="6">
-        <v>7</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>19</v>
+      <c r="H21" s="4">
+        <v>7</v>
+      </c>
+      <c r="I21" s="5">
+        <v>9</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -2043,16 +2031,16 @@
         <v>14</v>
       </c>
       <c r="G22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" s="6">
-        <v>7</v>
-      </c>
-      <c r="I22" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="H22" s="4">
+        <v>7</v>
+      </c>
+      <c r="I22" s="5">
+        <v>18</v>
+      </c>
       <c r="J22" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -2070,19 +2058,19 @@
       </c>
       <c r="E23" s="3"/>
       <c r="F23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="4">
+        <v>7</v>
+      </c>
+      <c r="I23" s="5">
         <v>18</v>
       </c>
-      <c r="G23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="6">
-        <v>7</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -2100,19 +2088,19 @@
       </c>
       <c r="E24" s="3"/>
       <c r="F24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G24" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="4">
         <v>7</v>
       </c>
       <c r="I24" s="6">
         <v>10</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -2130,19 +2118,19 @@
       </c>
       <c r="E25" s="3"/>
       <c r="F25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G25" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="6">
-        <v>7</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>16</v>
+      <c r="H25" s="4">
+        <v>7</v>
+      </c>
+      <c r="I25" s="5">
+        <v>36</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -2160,19 +2148,19 @@
       </c>
       <c r="E26" s="3"/>
       <c r="F26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G26" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="6">
-        <v>7</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>19</v>
+      <c r="H26" s="4">
+        <v>7</v>
+      </c>
+      <c r="I26" s="5">
+        <v>9</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -2193,16 +2181,16 @@
         <v>14</v>
       </c>
       <c r="G27" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" s="6">
-        <v>7</v>
-      </c>
-      <c r="I27" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="H27" s="4">
+        <v>7</v>
+      </c>
+      <c r="I27" s="5">
+        <v>45</v>
+      </c>
       <c r="J27" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -2220,19 +2208,19 @@
       </c>
       <c r="E28" s="3"/>
       <c r="F28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G28" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="6">
-        <v>7</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>24</v>
+      <c r="H28" s="4">
+        <v>7</v>
+      </c>
+      <c r="I28" s="5">
+        <v>27</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -2250,19 +2238,19 @@
       </c>
       <c r="E29" s="3"/>
       <c r="F29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="4">
+        <v>7</v>
+      </c>
+      <c r="I29" s="5">
         <v>18</v>
       </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="6">
-        <v>7</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="J29" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -2280,19 +2268,19 @@
       </c>
       <c r="E30" s="3"/>
       <c r="F30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G30" t="s">
-        <v>26</v>
-      </c>
-      <c r="H30" s="6">
-        <v>7</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="H30" s="4">
+        <v>7</v>
+      </c>
+      <c r="I30" s="5">
+        <v>27</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -2315,14 +2303,14 @@
       <c r="G31" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="6">
-        <v>7</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>16</v>
+      <c r="H31" s="4">
+        <v>7</v>
+      </c>
+      <c r="I31" s="5">
+        <v>36</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -2343,16 +2331,16 @@
         <v>14</v>
       </c>
       <c r="G32" t="s">
-        <v>26</v>
-      </c>
-      <c r="H32" s="6">
-        <v>7</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="H32" s="4">
+        <v>7</v>
+      </c>
+      <c r="I32" s="5">
+        <v>9</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -2370,19 +2358,19 @@
       </c>
       <c r="E33" s="3"/>
       <c r="F33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="4">
+        <v>7</v>
+      </c>
+      <c r="I33" s="5">
         <v>18</v>
       </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="6">
-        <v>7</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="J33" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -2400,19 +2388,19 @@
       </c>
       <c r="E34" s="3"/>
       <c r="F34" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G34" t="s">
         <v>15</v>
       </c>
-      <c r="H34" s="6">
-        <v>7</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>22</v>
+      <c r="H34" s="4">
+        <v>7</v>
+      </c>
+      <c r="I34" s="5">
+        <v>18</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -2430,7 +2418,7 @@
       </c>
       <c r="E35" s="3"/>
       <c r="F35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G35" t="s">
         <v>15</v>
@@ -2442,7 +2430,7 @@
         <v>11</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -2460,19 +2448,19 @@
       </c>
       <c r="E36" s="3"/>
       <c r="F36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G36" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H36" s="6">
         <v>7</v>
       </c>
-      <c r="I36" s="5" t="s">
-        <v>16</v>
+      <c r="I36" s="5">
+        <v>36</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -2493,16 +2481,16 @@
         <v>14</v>
       </c>
       <c r="G37" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H37" s="6">
         <v>7</v>
       </c>
-      <c r="I37" s="5" t="s">
-        <v>19</v>
+      <c r="I37" s="5">
+        <v>9</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -2520,7 +2508,7 @@
       </c>
       <c r="E38" s="3"/>
       <c r="F38" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G38" t="s">
         <v>15</v>
@@ -2528,11 +2516,11 @@
       <c r="H38" s="6">
         <v>7</v>
       </c>
-      <c r="I38" s="5" t="s">
-        <v>22</v>
+      <c r="I38" s="5">
+        <v>18</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -2550,19 +2538,19 @@
       </c>
       <c r="E39" s="3"/>
       <c r="F39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G39" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H39" s="6">
         <v>7</v>
       </c>
-      <c r="I39" s="5" t="s">
-        <v>24</v>
+      <c r="I39" s="5">
+        <v>27</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -2580,19 +2568,19 @@
       </c>
       <c r="E40" s="3"/>
       <c r="F40" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" s="6">
+        <v>7</v>
+      </c>
+      <c r="I40" s="5">
         <v>18</v>
       </c>
-      <c r="G40" t="s">
-        <v>26</v>
-      </c>
-      <c r="H40" s="6">
-        <v>7</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="J40" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -2618,11 +2606,11 @@
       <c r="H41" s="6">
         <v>7</v>
       </c>
-      <c r="I41" s="5" t="s">
-        <v>24</v>
+      <c r="I41" s="5">
+        <v>27</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -2640,19 +2628,19 @@
       </c>
       <c r="E42" s="3"/>
       <c r="F42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G42" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H42" s="6">
         <v>7</v>
       </c>
-      <c r="I42" s="5" t="s">
-        <v>16</v>
+      <c r="I42" s="5">
+        <v>9</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -2670,7 +2658,7 @@
       </c>
       <c r="E43" s="3"/>
       <c r="F43" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G43" t="s">
         <v>15</v>
@@ -2678,11 +2666,11 @@
       <c r="H43" s="6">
         <v>7</v>
       </c>
-      <c r="I43" s="5" t="s">
-        <v>19</v>
+      <c r="I43" s="5">
+        <v>9</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -2700,19 +2688,19 @@
       </c>
       <c r="E44" s="3"/>
       <c r="F44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="6">
+        <v>7</v>
+      </c>
+      <c r="I44" s="5">
         <v>18</v>
       </c>
-      <c r="G44" t="s">
-        <v>15</v>
-      </c>
-      <c r="H44" s="6">
-        <v>7</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="J44" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -2730,19 +2718,19 @@
       </c>
       <c r="E45" s="3"/>
       <c r="F45" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="6">
+        <v>7</v>
+      </c>
+      <c r="I45" s="5">
         <v>18</v>
       </c>
-      <c r="G45" t="s">
-        <v>15</v>
-      </c>
-      <c r="H45" s="6">
-        <v>7</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="J45" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -2769,10 +2757,10 @@
         <v>7</v>
       </c>
       <c r="I46" s="6">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -2790,19 +2778,19 @@
       </c>
       <c r="E47" s="3"/>
       <c r="F47" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G47" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H47" s="6">
         <v>7</v>
       </c>
-      <c r="I47" s="5" t="s">
-        <v>16</v>
+      <c r="I47" s="5">
+        <v>36</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -2820,7 +2808,7 @@
       </c>
       <c r="E48" s="3"/>
       <c r="F48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G48" t="s">
         <v>15</v>
@@ -2828,11 +2816,11 @@
       <c r="H48" s="6">
         <v>7</v>
       </c>
-      <c r="I48" s="5" t="s">
-        <v>19</v>
+      <c r="I48" s="5">
+        <v>9</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -2850,19 +2838,19 @@
       </c>
       <c r="E49" s="3"/>
       <c r="F49" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="6">
+        <v>7</v>
+      </c>
+      <c r="I49" s="5">
         <v>18</v>
       </c>
-      <c r="G49" t="s">
-        <v>15</v>
-      </c>
-      <c r="H49" s="6">
-        <v>7</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="J49" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -2883,16 +2871,16 @@
         <v>14</v>
       </c>
       <c r="G50" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H50" s="6">
         <v>7</v>
       </c>
-      <c r="I50" s="5" t="s">
-        <v>24</v>
+      <c r="I50" s="5">
+        <v>27</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -2918,11 +2906,11 @@
       <c r="H51" s="6">
         <v>7</v>
       </c>
-      <c r="I51" s="5" t="s">
-        <v>22</v>
+      <c r="I51" s="5">
+        <v>18</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -2940,19 +2928,19 @@
       </c>
       <c r="E52" s="3"/>
       <c r="F52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G52" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H52" s="6">
         <v>7</v>
       </c>
-      <c r="I52" s="5" t="s">
-        <v>24</v>
+      <c r="I52" s="5">
+        <v>27</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -2970,7 +2958,7 @@
       </c>
       <c r="E53" s="3"/>
       <c r="F53" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G53" t="s">
         <v>15</v>
@@ -2978,11 +2966,11 @@
       <c r="H53" s="6">
         <v>7</v>
       </c>
-      <c r="I53" s="5" t="s">
-        <v>16</v>
+      <c r="I53" s="5">
+        <v>36</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -3000,7 +2988,7 @@
       </c>
       <c r="E54" s="3"/>
       <c r="F54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G54" t="s">
         <v>15</v>
@@ -3008,11 +2996,11 @@
       <c r="H54" s="6">
         <v>7</v>
       </c>
-      <c r="I54" s="5" t="s">
-        <v>19</v>
+      <c r="I54" s="5">
+        <v>9</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -3030,19 +3018,19 @@
       </c>
       <c r="E55" s="3"/>
       <c r="F55" t="s">
+        <v>17</v>
+      </c>
+      <c r="G55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" s="6">
+        <v>7</v>
+      </c>
+      <c r="I55" s="5">
         <v>18</v>
       </c>
-      <c r="G55" t="s">
-        <v>15</v>
-      </c>
-      <c r="H55" s="6">
-        <v>7</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="J55" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -3068,11 +3056,11 @@
       <c r="H56" s="6">
         <v>7</v>
       </c>
-      <c r="I56" s="5" t="s">
-        <v>22</v>
+      <c r="I56" s="5">
+        <v>18</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -3090,10 +3078,10 @@
       </c>
       <c r="E57" s="3"/>
       <c r="F57" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G57" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H57" s="6">
         <v>7</v>
@@ -3102,7 +3090,7 @@
         <v>13</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -3120,7 +3108,7 @@
       </c>
       <c r="E58" s="3"/>
       <c r="F58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G58" t="s">
         <v>15</v>
@@ -3128,11 +3116,11 @@
       <c r="H58" s="6">
         <v>7</v>
       </c>
-      <c r="I58" s="5" t="s">
-        <v>16</v>
+      <c r="I58" s="5">
+        <v>45</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -3150,7 +3138,7 @@
       </c>
       <c r="E59" s="3"/>
       <c r="F59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G59" t="s">
         <v>15</v>
@@ -3158,11 +3146,11 @@
       <c r="H59" s="6">
         <v>7</v>
       </c>
-      <c r="I59" s="5" t="s">
-        <v>19</v>
+      <c r="I59" s="5">
+        <v>9</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -3183,16 +3171,16 @@
         <v>14</v>
       </c>
       <c r="G60" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H60" s="6">
         <v>7</v>
       </c>
-      <c r="I60" s="5" t="s">
-        <v>22</v>
+      <c r="I60" s="5">
+        <v>18</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -3210,7 +3198,7 @@
       </c>
       <c r="E61" s="3"/>
       <c r="F61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G61" t="s">
         <v>15</v>
@@ -3222,7 +3210,7 @@
         <v>9</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -3240,19 +3228,19 @@
       </c>
       <c r="E62" s="3"/>
       <c r="F62" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G62" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H62" s="6">
         <v>7</v>
       </c>
-      <c r="I62" s="5" t="s">
-        <v>22</v>
+      <c r="I62" s="5">
+        <v>18</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -3270,19 +3258,19 @@
       </c>
       <c r="E63" s="3"/>
       <c r="F63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G63" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H63" s="6">
         <v>7</v>
       </c>
-      <c r="I63" s="5" t="s">
-        <v>24</v>
+      <c r="I63" s="5">
+        <v>27</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -3300,19 +3288,19 @@
       </c>
       <c r="E64" s="3"/>
       <c r="F64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G64" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H64" s="6">
         <v>7</v>
       </c>
-      <c r="I64" s="5" t="s">
-        <v>16</v>
+      <c r="I64" s="5">
+        <v>36</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -3338,11 +3326,11 @@
       <c r="H65" s="6">
         <v>7</v>
       </c>
-      <c r="I65" s="5" t="s">
-        <v>19</v>
+      <c r="I65" s="5">
+        <v>9</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -3360,7 +3348,7 @@
       </c>
       <c r="E66" s="3"/>
       <c r="F66" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G66" t="s">
         <v>15</v>
@@ -3368,11 +3356,11 @@
       <c r="H66" s="6">
         <v>7</v>
       </c>
-      <c r="I66" s="5" t="s">
-        <v>22</v>
+      <c r="I66" s="5">
+        <v>18</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -3390,19 +3378,19 @@
       </c>
       <c r="E67" s="3"/>
       <c r="F67" t="s">
+        <v>17</v>
+      </c>
+      <c r="G67" t="s">
+        <v>22</v>
+      </c>
+      <c r="H67" s="6">
+        <v>7</v>
+      </c>
+      <c r="I67" s="5">
         <v>18</v>
       </c>
-      <c r="G67" t="s">
-        <v>26</v>
-      </c>
-      <c r="H67" s="6">
-        <v>7</v>
-      </c>
-      <c r="I67" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="J67" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -3420,7 +3408,7 @@
       </c>
       <c r="E68" s="3"/>
       <c r="F68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G68" t="s">
         <v>15</v>
@@ -3432,7 +3420,7 @@
         <v>14</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -3458,11 +3446,11 @@
       <c r="H69" s="6">
         <v>7</v>
       </c>
-      <c r="I69" s="5" t="s">
-        <v>16</v>
+      <c r="I69" s="5">
+        <v>36</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -3483,16 +3471,16 @@
         <v>14</v>
       </c>
       <c r="G70" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H70" s="6">
         <v>7</v>
       </c>
-      <c r="I70" s="5" t="s">
-        <v>19</v>
+      <c r="I70" s="5">
+        <v>45</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -3510,19 +3498,19 @@
       </c>
       <c r="E71" s="3"/>
       <c r="F71" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" s="6">
+        <v>7</v>
+      </c>
+      <c r="I71" s="5">
         <v>18</v>
       </c>
-      <c r="G71" t="s">
-        <v>15</v>
-      </c>
-      <c r="H71" s="6">
-        <v>7</v>
-      </c>
-      <c r="I71" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="J71" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -3540,19 +3528,19 @@
       </c>
       <c r="E72" s="3"/>
       <c r="F72" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G72" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H72" s="6">
         <v>7</v>
       </c>
-      <c r="I72" s="5" t="s">
-        <v>24</v>
+      <c r="I72" s="5">
+        <v>27</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -3570,19 +3558,19 @@
       </c>
       <c r="E73" s="3"/>
       <c r="F73" t="s">
+        <v>17</v>
+      </c>
+      <c r="G73" t="s">
+        <v>15</v>
+      </c>
+      <c r="H73" s="6">
+        <v>7</v>
+      </c>
+      <c r="I73" s="5">
         <v>18</v>
       </c>
-      <c r="G73" t="s">
-        <v>15</v>
-      </c>
-      <c r="H73" s="6">
-        <v>7</v>
-      </c>
-      <c r="I73" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="J73" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -3600,7 +3588,7 @@
       </c>
       <c r="E74" s="3"/>
       <c r="F74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G74" t="s">
         <v>15</v>
@@ -3612,7 +3600,7 @@
         <v>9</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -3638,11 +3626,11 @@
       <c r="H75" s="6">
         <v>7</v>
       </c>
-      <c r="I75" s="5" t="s">
-        <v>16</v>
+      <c r="I75" s="5">
+        <v>36</v>
       </c>
       <c r="J75" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
@@ -3660,7 +3648,7 @@
       </c>
       <c r="E76" s="3"/>
       <c r="F76" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G76" t="s">
         <v>15</v>
@@ -3668,11 +3656,11 @@
       <c r="H76" s="6">
         <v>7</v>
       </c>
-      <c r="I76" s="5" t="s">
-        <v>19</v>
+      <c r="I76" s="5">
+        <v>9</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -3690,10 +3678,10 @@
       </c>
       <c r="E77" s="3"/>
       <c r="F77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G77" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H77" s="6">
         <v>7</v>
@@ -3702,7 +3690,7 @@
         <v>9</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -3720,19 +3708,19 @@
       </c>
       <c r="E78" s="3"/>
       <c r="F78" t="s">
+        <v>17</v>
+      </c>
+      <c r="G78" t="s">
+        <v>15</v>
+      </c>
+      <c r="H78" s="6">
+        <v>7</v>
+      </c>
+      <c r="I78" s="5">
         <v>18</v>
       </c>
-      <c r="G78" t="s">
-        <v>15</v>
-      </c>
-      <c r="H78" s="6">
-        <v>7</v>
-      </c>
-      <c r="I78" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="J78" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -3762,7 +3750,7 @@
         <v>15</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
@@ -3780,19 +3768,19 @@
       </c>
       <c r="E80" s="3"/>
       <c r="F80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G80" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H80" s="6">
         <v>7</v>
       </c>
-      <c r="I80" s="5" t="s">
-        <v>16</v>
+      <c r="I80" s="5">
+        <v>36</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
@@ -3810,7 +3798,7 @@
       </c>
       <c r="E81" s="3"/>
       <c r="F81" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G81" t="s">
         <v>15</v>
@@ -3818,11 +3806,11 @@
       <c r="H81" s="6">
         <v>7</v>
       </c>
-      <c r="I81" s="5" t="s">
-        <v>19</v>
+      <c r="I81" s="5">
+        <v>9</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
@@ -3840,19 +3828,19 @@
       </c>
       <c r="E82" s="3"/>
       <c r="F82" t="s">
+        <v>17</v>
+      </c>
+      <c r="G82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H82" s="6">
+        <v>7</v>
+      </c>
+      <c r="I82" s="5">
         <v>18</v>
       </c>
-      <c r="G82" t="s">
-        <v>26</v>
-      </c>
-      <c r="H82" s="6">
-        <v>7</v>
-      </c>
-      <c r="I82" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="J82" s="6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
@@ -3870,7 +3858,7 @@
       </c>
       <c r="E83" s="3"/>
       <c r="F83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G83" t="s">
         <v>15</v>
@@ -3882,7 +3870,7 @@
         <v>9</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
@@ -3908,11 +3896,11 @@
       <c r="H84" s="6">
         <v>7</v>
       </c>
-      <c r="I84" s="5" t="s">
-        <v>22</v>
+      <c r="I84" s="5">
+        <v>18</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
@@ -3930,7 +3918,7 @@
       </c>
       <c r="E85" s="3"/>
       <c r="F85" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G85" t="s">
         <v>15</v>
@@ -3938,11 +3926,11 @@
       <c r="H85" s="6">
         <v>7</v>
       </c>
-      <c r="I85" s="5" t="s">
-        <v>24</v>
+      <c r="I85" s="5">
+        <v>27</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
@@ -3960,7 +3948,7 @@
       </c>
       <c r="E86" s="3"/>
       <c r="F86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G86" t="s">
         <v>15</v>
@@ -3968,11 +3956,11 @@
       <c r="H86" s="6">
         <v>7</v>
       </c>
-      <c r="I86" s="5" t="s">
-        <v>16</v>
+      <c r="I86" s="5">
+        <v>36</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
@@ -3990,19 +3978,19 @@
       </c>
       <c r="E87" s="3"/>
       <c r="F87" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G87" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H87" s="6">
         <v>7</v>
       </c>
-      <c r="I87" s="5" t="s">
-        <v>19</v>
+      <c r="I87" s="5">
+        <v>9</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
@@ -4023,16 +4011,16 @@
         <v>14</v>
       </c>
       <c r="G88" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H88" s="6">
         <v>7</v>
       </c>
-      <c r="I88" s="5" t="s">
-        <v>22</v>
+      <c r="I88" s="5">
+        <v>54</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
@@ -4058,11 +4046,11 @@
       <c r="H89" s="6">
         <v>7</v>
       </c>
-      <c r="I89" s="5" t="s">
-        <v>22</v>
+      <c r="I89" s="5">
+        <v>18</v>
       </c>
       <c r="J89" s="6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
@@ -4080,10 +4068,10 @@
       </c>
       <c r="E90" s="3"/>
       <c r="F90" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G90" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H90" s="6">
         <v>7</v>
@@ -4092,7 +4080,7 @@
         <v>16</v>
       </c>
       <c r="J90" s="6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
@@ -4110,7 +4098,7 @@
       </c>
       <c r="E91" s="3"/>
       <c r="F91" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G91" t="s">
         <v>15</v>
@@ -4118,11 +4106,11 @@
       <c r="H91" s="6">
         <v>7</v>
       </c>
-      <c r="I91" s="5" t="s">
-        <v>16</v>
+      <c r="I91" s="5">
+        <v>36</v>
       </c>
       <c r="J91" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
@@ -4140,19 +4128,19 @@
       </c>
       <c r="E92" s="3"/>
       <c r="F92" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G92" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H92" s="6">
         <v>7</v>
       </c>
-      <c r="I92" s="5" t="s">
-        <v>19</v>
+      <c r="I92" s="5">
+        <v>9</v>
       </c>
       <c r="J92" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
@@ -4170,19 +4158,19 @@
       </c>
       <c r="E93" s="3"/>
       <c r="F93" t="s">
+        <v>17</v>
+      </c>
+      <c r="G93" t="s">
+        <v>15</v>
+      </c>
+      <c r="H93" s="6">
+        <v>7</v>
+      </c>
+      <c r="I93" s="5">
         <v>18</v>
       </c>
-      <c r="G93" t="s">
-        <v>15</v>
-      </c>
-      <c r="H93" s="6">
-        <v>7</v>
-      </c>
-      <c r="I93" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="J93" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
@@ -4208,11 +4196,11 @@
       <c r="H94" s="6">
         <v>7</v>
       </c>
-      <c r="I94" s="5" t="s">
-        <v>24</v>
+      <c r="I94" s="5">
+        <v>27</v>
       </c>
       <c r="J94" s="6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
@@ -4238,11 +4226,11 @@
       <c r="H95" s="4">
         <v>7</v>
       </c>
-      <c r="I95" s="5" t="s">
-        <v>16</v>
+      <c r="I95" s="5">
+        <v>36</v>
       </c>
       <c r="J95" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
@@ -4260,7 +4248,7 @@
       </c>
       <c r="E96" s="3"/>
       <c r="F96" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G96" t="s">
         <v>15</v>
@@ -4268,11 +4256,11 @@
       <c r="H96" s="4">
         <v>7</v>
       </c>
-      <c r="I96" s="5" t="s">
-        <v>19</v>
+      <c r="I96" s="5">
+        <v>9</v>
       </c>
       <c r="J96" s="6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
@@ -4290,7 +4278,7 @@
       </c>
       <c r="E97" s="3"/>
       <c r="F97" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G97" t="s">
         <v>15</v>
@@ -4298,11 +4286,11 @@
       <c r="H97" s="4">
         <v>7</v>
       </c>
-      <c r="I97" s="5" t="s">
-        <v>22</v>
+      <c r="I97" s="5">
+        <v>18</v>
       </c>
       <c r="J97" s="6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
@@ -4320,19 +4308,19 @@
       </c>
       <c r="E98" s="3"/>
       <c r="F98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G98" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H98" s="4">
         <v>7</v>
       </c>
-      <c r="I98" s="5" t="s">
-        <v>24</v>
+      <c r="I98" s="5">
+        <v>27</v>
       </c>
       <c r="J98" s="6" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
@@ -4350,19 +4338,19 @@
       </c>
       <c r="E99" s="3"/>
       <c r="F99" t="s">
+        <v>17</v>
+      </c>
+      <c r="G99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H99" s="4">
+        <v>7</v>
+      </c>
+      <c r="I99" s="5">
         <v>18</v>
       </c>
-      <c r="G99" t="s">
-        <v>26</v>
-      </c>
-      <c r="H99" s="4">
-        <v>7</v>
-      </c>
-      <c r="I99" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="J99" s="6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
@@ -4388,11 +4376,11 @@
       <c r="H100" s="4">
         <v>7</v>
       </c>
-      <c r="I100" s="5" t="s">
-        <v>24</v>
+      <c r="I100" s="5">
+        <v>45</v>
       </c>
       <c r="J100" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
@@ -4410,7 +4398,7 @@
       </c>
       <c r="E101" s="3"/>
       <c r="F101" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G101" t="s">
         <v>15</v>
@@ -4418,11 +4406,11 @@
       <c r="H101" s="4">
         <v>7</v>
       </c>
-      <c r="I101" s="5" t="s">
-        <v>16</v>
+      <c r="I101" s="5">
+        <v>36</v>
       </c>
       <c r="J101" s="6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
@@ -4440,19 +4428,19 @@
       </c>
       <c r="E102" s="3"/>
       <c r="F102" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G102" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H102" s="4">
         <v>7</v>
       </c>
-      <c r="I102" s="5" t="s">
-        <v>19</v>
+      <c r="I102" s="5">
+        <v>9</v>
       </c>
       <c r="J102" s="6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
@@ -4470,19 +4458,19 @@
       </c>
       <c r="E103" s="3"/>
       <c r="F103" t="s">
+        <v>17</v>
+      </c>
+      <c r="G103" t="s">
+        <v>15</v>
+      </c>
+      <c r="H103" s="4">
+        <v>7</v>
+      </c>
+      <c r="I103" s="5">
         <v>18</v>
       </c>
-      <c r="G103" t="s">
-        <v>15</v>
-      </c>
-      <c r="H103" s="4">
-        <v>7</v>
-      </c>
-      <c r="I103" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="J103" s="6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
@@ -4503,16 +4491,16 @@
         <v>14</v>
       </c>
       <c r="G104" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H104" s="5">
         <v>7</v>
       </c>
-      <c r="I104" s="5" t="s">
-        <v>22</v>
+      <c r="I104" s="5">
+        <v>18</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
@@ -4542,7 +4530,7 @@
         <v>9</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
@@ -4560,19 +4548,19 @@
       </c>
       <c r="E106" s="3"/>
       <c r="F106" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G106" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H106" s="6">
         <v>7</v>
       </c>
-      <c r="I106" s="5" t="s">
-        <v>16</v>
+      <c r="I106" s="5">
+        <v>36</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
@@ -4590,7 +4578,7 @@
       </c>
       <c r="E107" s="3"/>
       <c r="F107" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G107" t="s">
         <v>15</v>
@@ -4598,11 +4586,11 @@
       <c r="H107" s="6">
         <v>7</v>
       </c>
-      <c r="I107" s="5" t="s">
-        <v>19</v>
+      <c r="I107" s="5">
+        <v>9</v>
       </c>
       <c r="J107" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
@@ -4620,19 +4608,19 @@
       </c>
       <c r="E108" s="3"/>
       <c r="F108" t="s">
+        <v>17</v>
+      </c>
+      <c r="G108" t="s">
+        <v>15</v>
+      </c>
+      <c r="H108" s="6">
+        <v>7</v>
+      </c>
+      <c r="I108" s="5">
         <v>18</v>
       </c>
-      <c r="G108" t="s">
-        <v>15</v>
-      </c>
-      <c r="H108" s="6">
-        <v>7</v>
-      </c>
-      <c r="I108" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="J108" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
@@ -4650,19 +4638,19 @@
       </c>
       <c r="E109" s="3"/>
       <c r="F109" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G109" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H109" s="6">
         <v>7</v>
       </c>
-      <c r="I109" s="5" t="s">
-        <v>24</v>
+      <c r="I109" s="5">
+        <v>27</v>
       </c>
       <c r="J109" s="6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
@@ -4688,11 +4676,11 @@
       <c r="H110" s="6">
         <v>7</v>
       </c>
-      <c r="I110" s="5" t="s">
-        <v>22</v>
+      <c r="I110" s="5">
+        <v>18</v>
       </c>
       <c r="J110" s="6" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
@@ -4710,7 +4698,7 @@
       </c>
       <c r="E111" s="3"/>
       <c r="F111" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G111" t="s">
         <v>15</v>
@@ -4718,11 +4706,11 @@
       <c r="H111" s="6">
         <v>7</v>
       </c>
-      <c r="I111" s="5" t="s">
-        <v>24</v>
+      <c r="I111" s="5">
+        <v>27</v>
       </c>
       <c r="J111" s="6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
@@ -4740,19 +4728,19 @@
       </c>
       <c r="E112" s="3"/>
       <c r="F112" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G112" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H112" s="6">
         <v>7</v>
       </c>
-      <c r="I112" s="5" t="s">
-        <v>16</v>
+      <c r="I112" s="5">
+        <v>9</v>
       </c>
       <c r="J112" s="6" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
@@ -4770,7 +4758,7 @@
       </c>
       <c r="E113" s="3"/>
       <c r="F113" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G113" t="s">
         <v>15</v>
@@ -4778,11 +4766,11 @@
       <c r="H113" s="6">
         <v>7</v>
       </c>
-      <c r="I113" s="5" t="s">
-        <v>19</v>
+      <c r="I113" s="5">
+        <v>9</v>
       </c>
       <c r="J113" s="6" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
@@ -4803,16 +4791,16 @@
         <v>14</v>
       </c>
       <c r="G114" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H114" s="6">
         <v>7</v>
       </c>
-      <c r="I114" s="5" t="s">
-        <v>22</v>
+      <c r="I114" s="5">
+        <v>45</v>
       </c>
       <c r="J114" s="6" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
@@ -4830,19 +4818,19 @@
       </c>
       <c r="E115" s="3"/>
       <c r="F115" t="s">
+        <v>17</v>
+      </c>
+      <c r="G115" t="s">
+        <v>15</v>
+      </c>
+      <c r="H115" s="6">
+        <v>7</v>
+      </c>
+      <c r="I115" s="5">
         <v>18</v>
       </c>
-      <c r="G115" t="s">
-        <v>15</v>
-      </c>
-      <c r="H115" s="6">
-        <v>7</v>
-      </c>
-      <c r="I115" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="J115" s="6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
@@ -4860,7 +4848,7 @@
       </c>
       <c r="E116" s="3"/>
       <c r="F116" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G116" t="s">
         <v>15</v>
@@ -4872,7 +4860,7 @@
         <v>10</v>
       </c>
       <c r="J116" s="6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
@@ -4890,19 +4878,19 @@
       </c>
       <c r="E117" s="3"/>
       <c r="F117" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G117" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H117" s="6">
         <v>7</v>
       </c>
-      <c r="I117" s="5" t="s">
-        <v>16</v>
+      <c r="I117" s="5">
+        <v>36</v>
       </c>
       <c r="J117" s="6" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
@@ -4920,7 +4908,7 @@
       </c>
       <c r="E118" s="3"/>
       <c r="F118" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G118" t="s">
         <v>15</v>
@@ -4928,11 +4916,11 @@
       <c r="H118" s="6">
         <v>7</v>
       </c>
-      <c r="I118" s="5" t="s">
-        <v>19</v>
+      <c r="I118" s="5">
+        <v>9</v>
       </c>
       <c r="J118" s="6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
@@ -4953,16 +4941,16 @@
         <v>14</v>
       </c>
       <c r="G119" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H119" s="6">
         <v>7</v>
       </c>
-      <c r="I119" s="5" t="s">
-        <v>22</v>
+      <c r="I119" s="5">
+        <v>18</v>
       </c>
       <c r="J119" s="6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
@@ -4980,7 +4968,7 @@
       </c>
       <c r="E120" s="3"/>
       <c r="F120" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G120" t="s">
         <v>15</v>
@@ -4988,11 +4976,11 @@
       <c r="H120" s="6">
         <v>7</v>
       </c>
-      <c r="I120" s="5" t="s">
-        <v>24</v>
+      <c r="I120" s="5">
+        <v>27</v>
       </c>
       <c r="J120" s="6" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
@@ -5010,19 +4998,19 @@
       </c>
       <c r="E121" s="3"/>
       <c r="F121" t="s">
+        <v>17</v>
+      </c>
+      <c r="G121" t="s">
+        <v>15</v>
+      </c>
+      <c r="H121" s="6">
+        <v>7</v>
+      </c>
+      <c r="I121" s="5">
         <v>18</v>
       </c>
-      <c r="G121" t="s">
-        <v>15</v>
-      </c>
-      <c r="H121" s="6">
-        <v>7</v>
-      </c>
-      <c r="I121" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="J121" s="6" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
@@ -5040,19 +5028,19 @@
       </c>
       <c r="E122" s="3"/>
       <c r="F122" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G122" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H122" s="6">
         <v>7</v>
       </c>
-      <c r="I122" s="5" t="s">
-        <v>24</v>
+      <c r="I122" s="5">
+        <v>27</v>
       </c>
       <c r="J122" s="6" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
@@ -5078,11 +5066,11 @@
       <c r="H123" s="6">
         <v>7</v>
       </c>
-      <c r="I123" s="5" t="s">
-        <v>16</v>
+      <c r="I123" s="5">
+        <v>36</v>
       </c>
       <c r="J123" s="6" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
@@ -5103,16 +5091,16 @@
         <v>14</v>
       </c>
       <c r="G124" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H124" s="6">
         <v>7</v>
       </c>
-      <c r="I124" s="5" t="s">
-        <v>19</v>
+      <c r="I124" s="5">
+        <v>9</v>
       </c>
       <c r="J124" s="6" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
@@ -5130,7 +5118,7 @@
       </c>
       <c r="E125" s="3"/>
       <c r="F125" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G125" t="s">
         <v>15</v>
@@ -5138,11 +5126,11 @@
       <c r="H125" s="6">
         <v>7</v>
       </c>
-      <c r="I125" s="5" t="s">
-        <v>22</v>
+      <c r="I125" s="5">
+        <v>54</v>
       </c>
       <c r="J125" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
@@ -5160,7 +5148,7 @@
       </c>
       <c r="E126" s="3"/>
       <c r="F126" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G126" t="s">
         <v>15</v>
@@ -5168,11 +5156,22 @@
       <c r="H126" s="6">
         <v>7</v>
       </c>
-      <c r="I126" s="5" t="s">
-        <v>22</v>
+      <c r="I126" s="5">
+        <v>18</v>
       </c>
       <c r="J126" s="6" t="s">
-        <v>145</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="130" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C130">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="132" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="I132">
+        <f>SUM(I3:I126)/9</f>
+        <v>305.88888888888891</v>
       </c>
     </row>
   </sheetData>

--- a/0_Configuration/Foundation/Dummy_survey_data.xlsx
+++ b/0_Configuration/Foundation/Dummy_survey_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/royuijtendaal_tudelft_nl/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="263" documentId="11_BC306F1EC3D654026F15A6DB943E8C1851039F55" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD59EFB4-F7D6-4550-B427-C0BA86713DBF}"/>
+  <xr:revisionPtr revIDLastSave="288" documentId="11_BC306F1EC3D654026F15A6DB943E8C1851039F55" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63D48E9C-AA9C-480A-8AB2-9EE3B4BE1D4D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1400,7 +1400,7 @@
   <dimension ref="A1:J132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1476,7 +1476,7 @@
         <v>7</v>
       </c>
       <c r="I3" s="5">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>16</v>
@@ -1592,7 +1592,7 @@
         <v>7</v>
       </c>
       <c r="I7" s="5">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>141</v>
@@ -1708,7 +1708,7 @@
         <v>7</v>
       </c>
       <c r="I11" s="5">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>27</v>
@@ -1827,7 +1827,7 @@
         <v>7</v>
       </c>
       <c r="I15" s="5">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>30</v>
@@ -2037,7 +2037,7 @@
         <v>7</v>
       </c>
       <c r="I22" s="5">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>37</v>
@@ -2097,7 +2097,7 @@
         <v>7</v>
       </c>
       <c r="I24" s="6">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>39</v>
@@ -2217,7 +2217,7 @@
         <v>7</v>
       </c>
       <c r="I28" s="5">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="J28" s="6" t="s">
         <v>43</v>
@@ -2337,7 +2337,7 @@
         <v>7</v>
       </c>
       <c r="I32" s="5">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="J32" s="6" t="s">
         <v>47</v>
@@ -2427,7 +2427,7 @@
         <v>7</v>
       </c>
       <c r="I35" s="6">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="J35" s="6" t="s">
         <v>50</v>
@@ -2547,7 +2547,7 @@
         <v>7</v>
       </c>
       <c r="I39" s="5">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="J39" s="6" t="s">
         <v>54</v>
@@ -2727,7 +2727,7 @@
         <v>7</v>
       </c>
       <c r="I45" s="5">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="J45" s="6" t="s">
         <v>60</v>
@@ -2907,7 +2907,7 @@
         <v>7</v>
       </c>
       <c r="I51" s="5">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="J51" s="6" t="s">
         <v>66</v>
@@ -3087,7 +3087,7 @@
         <v>7</v>
       </c>
       <c r="I57" s="6">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="J57" s="6" t="s">
         <v>72</v>
@@ -3267,7 +3267,7 @@
         <v>7</v>
       </c>
       <c r="I63" s="5">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="J63" s="6" t="s">
         <v>78</v>
@@ -3357,7 +3357,7 @@
         <v>7</v>
       </c>
       <c r="I66" s="5">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="J66" s="6" t="s">
         <v>81</v>
@@ -3417,7 +3417,7 @@
         <v>7</v>
       </c>
       <c r="I68" s="6">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="J68" s="6" t="s">
         <v>83</v>
@@ -3597,7 +3597,7 @@
         <v>7</v>
       </c>
       <c r="I74" s="5">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="J74" s="6" t="s">
         <v>89</v>
@@ -3747,7 +3747,7 @@
         <v>7</v>
       </c>
       <c r="I79" s="6">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="J79" s="6" t="s">
         <v>94</v>
@@ -3807,7 +3807,7 @@
         <v>7</v>
       </c>
       <c r="I81" s="5">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="J81" s="6" t="s">
         <v>96</v>
@@ -4077,7 +4077,7 @@
         <v>7</v>
       </c>
       <c r="I90" s="6">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="J90" s="6" t="s">
         <v>104</v>
@@ -4167,7 +4167,7 @@
         <v>7</v>
       </c>
       <c r="I93" s="5">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="J93" s="6" t="s">
         <v>107</v>
@@ -4437,7 +4437,7 @@
         <v>7</v>
       </c>
       <c r="I102" s="5">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="J102" s="6" t="s">
         <v>116</v>
@@ -4737,7 +4737,7 @@
         <v>7</v>
       </c>
       <c r="I112" s="5">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="J112" s="6" t="s">
         <v>126</v>
@@ -4857,7 +4857,7 @@
         <v>7</v>
       </c>
       <c r="I116" s="6">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="J116" s="6" t="s">
         <v>130</v>
@@ -5007,7 +5007,7 @@
         <v>7</v>
       </c>
       <c r="I121" s="5">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="J121" s="6" t="s">
         <v>135</v>
@@ -5171,7 +5171,7 @@
     <row r="132" spans="3:9" x14ac:dyDescent="0.3">
       <c r="I132">
         <f>SUM(I3:I126)/9</f>
-        <v>305.88888888888891</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>

--- a/0_Configuration/Foundation/Dummy_survey_data.xlsx
+++ b/0_Configuration/Foundation/Dummy_survey_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/royuijtendaal_tudelft_nl/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uijte\Desktop\Earthy\Earthy4.2\0_Configuration\Foundation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="288" documentId="11_BC306F1EC3D654026F15A6DB943E8C1851039F55" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63D48E9C-AA9C-480A-8AB2-9EE3B4BE1D4D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{395C2256-FE35-43AA-878A-76F871313DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1400,7 +1400,7 @@
   <dimension ref="A1:J132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/0_Configuration/Foundation/Dummy_survey_data.xlsx
+++ b/0_Configuration/Foundation/Dummy_survey_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/royuijtendaal_tudelft_nl/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1aa06ab9054ed691/2020 ONWARDS/06_Delft/15_Y2Q1/01_Earthy/03_Scripts/Earthy4.2/0_Configuration/Foundation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="229" documentId="11_BC306F1EC3D654026F15A6DB943E8C1851039F55" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FE1F1D8-6E8C-4054-974F-19F0CCDBE40B}"/>
+  <xr:revisionPtr revIDLastSave="245" documentId="11_BC306F1EC3D654026F15A6DB943E8C1851039F55" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{975DFD73-25C7-7540-A408-EADFEE0E4DDD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_56F9DC9755BA473782653E2940F9" sheetId="2" state="veryHidden" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="146">
   <si>
     <t>TVJuCSlpMECM04q0LeCIewSGhfaBZ39GnlLa7HxNxghURTFPTUZUMkZGRTBIUk5WM1Y0SENZR0NMNi4u</t>
   </si>
@@ -1078,6 +1078,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C68CD83E-6880-4603-BB81-088DE6DF4914}" name="Tabel1" displayName="Tabel1" ref="A1:J126" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="A1:J126" xr:uid="{CA480ED5-2198-4F6D-A6AD-D7139E15AAA6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J125">
+    <sortCondition descending="1" ref="I1:I126"/>
+  </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{0AE09BF6-BE8E-43A8-8D5C-A4D963796C76}" name="ID" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{AAD0037D-06C4-46FD-B10F-D0BD8E04F341}" name="Begintijd" dataDxfId="8"/>
@@ -1385,19 +1388,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1411,25 +1414,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0664D784-8D36-45F1-B113-7E81F546C508}">
   <dimension ref="A1:J126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="E49" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
+      <selection activeCell="I118" sqref="I118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="29.88671875" customWidth="1"/>
-    <col min="5" max="8" width="28.5546875" customWidth="1"/>
-    <col min="10" max="10" width="28.5546875" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" customWidth="1"/>
+    <col min="5" max="8" width="28.5" customWidth="1"/>
+    <col min="10" max="10" width="28.5" customWidth="1"/>
     <col min="11" max="11" width="30.33203125" customWidth="1"/>
     <col min="14" max="14" width="23.33203125" customWidth="1"/>
-    <col min="15" max="15" width="17.5546875" customWidth="1"/>
-    <col min="16" max="17" width="18.109375" customWidth="1"/>
+    <col min="15" max="15" width="17.5" customWidth="1"/>
+    <col min="16" max="17" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1461,11 +1464,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>17</v>
       </c>
@@ -1494,7 +1497,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>18</v>
       </c>
@@ -1523,7 +1526,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>19</v>
       </c>
@@ -1552,36 +1555,37 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2">
-        <v>44476.580682870372</v>
+        <v>44477.692893518521</v>
       </c>
       <c r="C6" s="2">
-        <v>44476.581817129627</v>
+        <v>44477.693032407406</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
+      <c r="E6" s="3"/>
       <c r="F6" t="s">
         <v>18</v>
       </c>
       <c r="G6" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="4">
-        <v>12</v>
+      <c r="H6" s="6">
+        <v>7</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>21</v>
       </c>
@@ -1610,7 +1614,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>22</v>
       </c>
@@ -1639,7 +1643,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>23</v>
       </c>
@@ -1668,7 +1672,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>24</v>
       </c>
@@ -1690,43 +1694,44 @@
       <c r="H10" s="4">
         <v>2</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>19</v>
+      <c r="I10" s="5">
+        <v>36</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B11" s="2">
-        <v>44477.692893518521</v>
+        <v>44476.580682870372</v>
       </c>
       <c r="C11" s="2">
-        <v>44477.693032407406</v>
+        <v>44476.581817129627</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
       </c>
+      <c r="E11" s="3"/>
       <c r="F11" t="s">
         <v>18</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="4">
-        <v>1</v>
+      <c r="H11" s="6">
+        <v>7</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>26</v>
       </c>
@@ -1755,7 +1760,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>27</v>
       </c>
@@ -1785,15 +1790,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="B14" s="2">
-        <v>44476.535937499997</v>
+        <v>44477.682314814818</v>
       </c>
       <c r="C14" s="2">
-        <v>44476.536435185182</v>
+        <v>44477.682453703703</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
@@ -1809,13 +1814,13 @@
         <v>7</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>29</v>
       </c>
@@ -1845,15 +1850,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="B16" s="2">
-        <v>44476.580682870372</v>
+        <v>44476.535937499997</v>
       </c>
       <c r="C16" s="2">
-        <v>44476.581817129627</v>
+        <v>44476.536435185182</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
@@ -1869,13 +1874,13 @@
         <v>7</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>31</v>
       </c>
@@ -1905,7 +1910,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>32</v>
       </c>
@@ -1935,7 +1940,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>33</v>
       </c>
@@ -1965,7 +1970,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>34</v>
       </c>
@@ -1995,15 +2000,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="B21" s="2">
-        <v>44477.692893518521</v>
+        <v>44477.682476851849</v>
       </c>
       <c r="C21" s="2">
-        <v>44477.693032407406</v>
+        <v>44477.682800925926</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
@@ -2021,11 +2026,11 @@
       <c r="I21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J21" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>36</v>
       </c>
@@ -2055,15 +2060,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="B23" s="2">
-        <v>44476.532372685186</v>
+        <v>44476.580682870372</v>
       </c>
       <c r="C23" s="2">
-        <v>44476.532777777778</v>
+        <v>44476.581817129627</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
@@ -2075,17 +2080,17 @@
       <c r="G23" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="4">
         <v>7</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>38</v>
       </c>
@@ -2115,15 +2120,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="B25" s="2">
-        <v>44476.568298611113</v>
+        <v>44476.532372685186</v>
       </c>
       <c r="C25" s="2">
-        <v>44476.568483796298</v>
+        <v>44476.532777777778</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
@@ -2139,21 +2144,21 @@
         <v>7</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2">
-        <v>44476.580682870372</v>
+        <v>44476.535937499997</v>
       </c>
       <c r="C26" s="2">
-        <v>44476.581817129627</v>
+        <v>44476.536435185182</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
@@ -2169,13 +2174,13 @@
         <v>7</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>41</v>
       </c>
@@ -2205,7 +2210,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>42</v>
       </c>
@@ -2235,15 +2240,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2">
-        <v>44477.682476851849</v>
+        <v>44476.568298611113</v>
       </c>
       <c r="C29" s="2">
-        <v>44477.682800925926</v>
+        <v>44476.568483796298</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
@@ -2259,13 +2264,13 @@
         <v>7</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>44</v>
       </c>
@@ -2295,7 +2300,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>45</v>
       </c>
@@ -2325,7 +2330,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>46</v>
       </c>
@@ -2355,15 +2360,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B33" s="2">
-        <v>44476.532372685186</v>
+        <v>44476.580682870372</v>
       </c>
       <c r="C33" s="2">
-        <v>44476.532777777778</v>
+        <v>44476.581817129627</v>
       </c>
       <c r="D33" t="s">
         <v>13</v>
@@ -2379,13 +2384,13 @@
         <v>7</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>48</v>
       </c>
@@ -2415,15 +2420,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="B35" s="2">
-        <v>44476.568298611113</v>
+        <v>44477.682314814818</v>
       </c>
       <c r="C35" s="2">
-        <v>44476.568483796298</v>
+        <v>44477.682453703703</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
@@ -2438,22 +2443,22 @@
       <c r="H35" s="6">
         <v>7</v>
       </c>
-      <c r="I35" s="6">
-        <v>11</v>
+      <c r="I35" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="B36" s="2">
-        <v>44476.580682870372</v>
+        <v>44476.535937499997</v>
       </c>
       <c r="C36" s="2">
-        <v>44476.581817129627</v>
+        <v>44476.536435185182</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
@@ -2472,10 +2477,10 @@
         <v>16</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>51</v>
       </c>
@@ -2505,7 +2510,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>52</v>
       </c>
@@ -2535,15 +2540,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="B39" s="2">
-        <v>44477.682476851849</v>
+        <v>44476.580682870372</v>
       </c>
       <c r="C39" s="2">
-        <v>44477.682800925926</v>
+        <v>44476.581817129627</v>
       </c>
       <c r="D39" t="s">
         <v>13</v>
@@ -2559,13 +2564,13 @@
         <v>7</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>54</v>
       </c>
@@ -2595,7 +2600,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>55</v>
       </c>
@@ -2625,7 +2630,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>56</v>
       </c>
@@ -2655,7 +2660,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>57</v>
       </c>
@@ -2685,15 +2690,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="B44" s="2">
-        <v>44476.535937499997</v>
+        <v>44476.580682870372</v>
       </c>
       <c r="C44" s="2">
-        <v>44476.536435185182</v>
+        <v>44476.581817129627</v>
       </c>
       <c r="D44" t="s">
         <v>13</v>
@@ -2709,21 +2714,21 @@
         <v>7</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="B45" s="2">
-        <v>44476.568298611113</v>
+        <v>44477.682083333333</v>
       </c>
       <c r="C45" s="2">
-        <v>44476.568483796298</v>
+        <v>44477.682291666664</v>
       </c>
       <c r="D45" t="s">
         <v>13</v>
@@ -2739,13 +2744,13 @@
         <v>7</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>60</v>
       </c>
@@ -2775,7 +2780,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>61</v>
       </c>
@@ -2805,39 +2810,38 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="B48" s="2">
-        <v>44477.682314814818</v>
+        <v>44476.580682870372</v>
       </c>
       <c r="C48" s="2">
-        <v>44477.682453703703</v>
+        <v>44476.581817129627</v>
       </c>
       <c r="D48" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="3"/>
       <c r="F48" t="s">
         <v>18</v>
       </c>
       <c r="G48" t="s">
         <v>15</v>
       </c>
-      <c r="H48" s="6">
-        <v>7</v>
+      <c r="H48" s="4">
+        <v>12</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J48" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B49" s="2">
         <v>44477.682476851849</v>
@@ -2859,13 +2863,13 @@
         <v>7</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>64</v>
       </c>
@@ -2895,7 +2899,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>65</v>
       </c>
@@ -2925,7 +2929,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>66</v>
       </c>
@@ -2955,7 +2959,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>67</v>
       </c>
@@ -2985,15 +2989,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B54" s="2">
-        <v>44476.535937499997</v>
+        <v>44476.532372685186</v>
       </c>
       <c r="C54" s="2">
-        <v>44476.536435185182</v>
+        <v>44476.532777777778</v>
       </c>
       <c r="D54" t="s">
         <v>13</v>
@@ -3009,21 +3013,21 @@
         <v>7</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="B55" s="2">
-        <v>44476.568298611113</v>
+        <v>44477.682314814818</v>
       </c>
       <c r="C55" s="2">
-        <v>44476.568483796298</v>
+        <v>44477.682453703703</v>
       </c>
       <c r="D55" t="s">
         <v>13</v>
@@ -3035,17 +3039,17 @@
       <c r="G55" t="s">
         <v>15</v>
       </c>
-      <c r="H55" s="6">
+      <c r="H55" s="4">
         <v>7</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>70</v>
       </c>
@@ -3075,7 +3079,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>71</v>
       </c>
@@ -3105,45 +3109,44 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="B58" s="2">
-        <v>44477.682314814818</v>
+        <v>44477.692893518521</v>
       </c>
       <c r="C58" s="2">
-        <v>44477.682453703703</v>
+        <v>44477.693032407406</v>
       </c>
       <c r="D58" t="s">
         <v>13</v>
       </c>
-      <c r="E58" s="3"/>
       <c r="F58" t="s">
         <v>18</v>
       </c>
       <c r="G58" t="s">
         <v>15</v>
       </c>
-      <c r="H58" s="6">
-        <v>7</v>
+      <c r="H58" s="4">
+        <v>1</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J58" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="B59" s="2">
-        <v>44477.682476851849</v>
+        <v>44476.580682870372</v>
       </c>
       <c r="C59" s="2">
-        <v>44477.682800925926</v>
+        <v>44476.581817129627</v>
       </c>
       <c r="D59" t="s">
         <v>13</v>
@@ -3159,13 +3162,13 @@
         <v>7</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>74</v>
       </c>
@@ -3195,15 +3198,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="B61" s="2">
-        <v>44477.692893518521</v>
+        <v>44476.532372685186</v>
       </c>
       <c r="C61" s="2">
-        <v>44477.693032407406</v>
+        <v>44476.532777777778</v>
       </c>
       <c r="D61" t="s">
         <v>13</v>
@@ -3218,14 +3221,14 @@
       <c r="H61" s="6">
         <v>7</v>
       </c>
-      <c r="I61" s="5">
-        <v>9</v>
-      </c>
-      <c r="J61" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I61" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>76</v>
       </c>
@@ -3255,15 +3258,15 @@
         <v>82</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="B63" s="2">
-        <v>44476.532372685186</v>
+        <v>44477.682476851849</v>
       </c>
       <c r="C63" s="2">
-        <v>44476.532777777778</v>
+        <v>44477.682800925926</v>
       </c>
       <c r="D63" t="s">
         <v>13</v>
@@ -3279,21 +3282,21 @@
         <v>7</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="B64" s="2">
-        <v>44476.535937499997</v>
+        <v>44476.532372685186</v>
       </c>
       <c r="C64" s="2">
-        <v>44476.536435185182</v>
+        <v>44476.532777777778</v>
       </c>
       <c r="D64" t="s">
         <v>13</v>
@@ -3309,13 +3312,13 @@
         <v>7</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>79</v>
       </c>
@@ -3345,7 +3348,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>80</v>
       </c>
@@ -3375,7 +3378,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>81</v>
       </c>
@@ -3405,15 +3408,15 @@
         <v>87</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="B68" s="2">
-        <v>44477.682314814818</v>
+        <v>44476.535937499997</v>
       </c>
       <c r="C68" s="2">
-        <v>44477.682453703703</v>
+        <v>44476.536435185182</v>
       </c>
       <c r="D68" t="s">
         <v>13</v>
@@ -3428,14 +3431,14 @@
       <c r="H68" s="6">
         <v>7</v>
       </c>
-      <c r="I68" s="6">
-        <v>14</v>
+      <c r="I68" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>83</v>
       </c>
@@ -3465,7 +3468,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>84</v>
       </c>
@@ -3495,15 +3498,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="B71" s="2">
-        <v>44477.692893518521</v>
+        <v>44476.568298611113</v>
       </c>
       <c r="C71" s="2">
-        <v>44477.693032407406</v>
+        <v>44476.568483796298</v>
       </c>
       <c r="D71" t="s">
         <v>13</v>
@@ -3522,10 +3525,10 @@
         <v>22</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>86</v>
       </c>
@@ -3555,15 +3558,15 @@
         <v>92</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B73" s="2">
-        <v>44476.532372685186</v>
+        <v>44477.682476851849</v>
       </c>
       <c r="C73" s="2">
-        <v>44476.532777777778</v>
+        <v>44477.682800925926</v>
       </c>
       <c r="D73" t="s">
         <v>13</v>
@@ -3582,18 +3585,18 @@
         <v>22</v>
       </c>
       <c r="J73" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="B74" s="2">
-        <v>44476.535937499997</v>
+        <v>44476.568298611113</v>
       </c>
       <c r="C74" s="2">
-        <v>44476.536435185182</v>
+        <v>44476.568483796298</v>
       </c>
       <c r="D74" t="s">
         <v>13</v>
@@ -3608,14 +3611,14 @@
       <c r="H74" s="6">
         <v>7</v>
       </c>
-      <c r="I74" s="5">
-        <v>9</v>
+      <c r="I74" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>89</v>
       </c>
@@ -3645,7 +3648,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>90</v>
       </c>
@@ -3675,7 +3678,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>91</v>
       </c>
@@ -3699,21 +3702,21 @@
         <v>7</v>
       </c>
       <c r="I77" s="5">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="J77" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B78" s="2">
-        <v>44477.682314814818</v>
+        <v>44477.692893518521</v>
       </c>
       <c r="C78" s="2">
-        <v>44477.682453703703</v>
+        <v>44477.693032407406</v>
       </c>
       <c r="D78" t="s">
         <v>13</v>
@@ -3732,10 +3735,10 @@
         <v>22</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>93</v>
       </c>
@@ -3759,13 +3762,13 @@
         <v>7</v>
       </c>
       <c r="I79" s="6">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="J79" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>94</v>
       </c>
@@ -3795,7 +3798,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>95</v>
       </c>
@@ -3825,7 +3828,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>96</v>
       </c>
@@ -3855,9 +3858,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B83" s="2">
         <v>44476.532372685186</v>
@@ -3878,14 +3881,14 @@
       <c r="H83" s="6">
         <v>7</v>
       </c>
-      <c r="I83" s="5">
-        <v>9</v>
+      <c r="I83" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>98</v>
       </c>
@@ -3915,7 +3918,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>99</v>
       </c>
@@ -3945,15 +3948,15 @@
         <v>105</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B86" s="2">
-        <v>44476.580682870372</v>
+        <v>44477.682314814818</v>
       </c>
       <c r="C86" s="2">
-        <v>44476.581817129627</v>
+        <v>44477.682453703703</v>
       </c>
       <c r="D86" t="s">
         <v>13</v>
@@ -3969,13 +3972,13 @@
         <v>7</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>101</v>
       </c>
@@ -4005,7 +4008,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>102</v>
       </c>
@@ -4035,7 +4038,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>103</v>
       </c>
@@ -4065,7 +4068,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>104</v>
       </c>
@@ -4095,7 +4098,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>105</v>
       </c>
@@ -4125,7 +4128,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>106</v>
       </c>
@@ -4148,14 +4151,14 @@
       <c r="H92" s="6">
         <v>7</v>
       </c>
-      <c r="I92" s="5" t="s">
-        <v>19</v>
+      <c r="I92" s="5">
+        <v>45</v>
       </c>
       <c r="J92" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>107</v>
       </c>
@@ -4185,7 +4188,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>108</v>
       </c>
@@ -4215,7 +4218,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>109</v>
       </c>
@@ -4245,15 +4248,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B96" s="2">
-        <v>44476.580682870372</v>
+        <v>44476.532372685186</v>
       </c>
       <c r="C96" s="2">
-        <v>44476.581817129627</v>
+        <v>44476.532777777778</v>
       </c>
       <c r="D96" t="s">
         <v>13</v>
@@ -4269,13 +4272,13 @@
         <v>7</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J96" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>111</v>
       </c>
@@ -4305,9 +4308,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B98" s="2">
         <v>44477.682314814818</v>
@@ -4325,17 +4328,17 @@
       <c r="G98" t="s">
         <v>15</v>
       </c>
-      <c r="H98" s="4">
+      <c r="H98" s="6">
         <v>7</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J98" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>113</v>
       </c>
@@ -4365,7 +4368,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>114</v>
       </c>
@@ -4395,7 +4398,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>115</v>
       </c>
@@ -4425,7 +4428,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>116</v>
       </c>
@@ -4448,22 +4451,22 @@
       <c r="H102" s="4">
         <v>7</v>
       </c>
-      <c r="I102" s="5" t="s">
-        <v>19</v>
+      <c r="I102" s="5">
+        <v>36</v>
       </c>
       <c r="J102" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="B103" s="2">
-        <v>44476.532372685186</v>
+        <v>44476.568298611113</v>
       </c>
       <c r="C103" s="2">
-        <v>44476.532777777778</v>
+        <v>44476.568483796298</v>
       </c>
       <c r="D103" t="s">
         <v>13</v>
@@ -4475,17 +4478,17 @@
       <c r="G103" t="s">
         <v>15</v>
       </c>
-      <c r="H103" s="4">
+      <c r="H103" s="6">
         <v>7</v>
       </c>
       <c r="I103" s="5" t="s">
         <v>22</v>
       </c>
       <c r="J103" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>118</v>
       </c>
@@ -4515,7 +4518,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>119</v>
       </c>
@@ -4539,21 +4542,21 @@
         <v>7</v>
       </c>
       <c r="I105" s="6">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="J105" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="B106" s="2">
-        <v>44476.580682870372</v>
+        <v>44477.682476851849</v>
       </c>
       <c r="C106" s="2">
-        <v>44476.581817129627</v>
+        <v>44477.682800925926</v>
       </c>
       <c r="D106" t="s">
         <v>13</v>
@@ -4569,13 +4572,13 @@
         <v>7</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>121</v>
       </c>
@@ -4605,15 +4608,15 @@
         <v>126</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="B108" s="2">
-        <v>44477.682314814818</v>
+        <v>44476.532372685186</v>
       </c>
       <c r="C108" s="2">
-        <v>44477.682453703703</v>
+        <v>44476.532777777778</v>
       </c>
       <c r="D108" t="s">
         <v>13</v>
@@ -4632,10 +4635,10 @@
         <v>22</v>
       </c>
       <c r="J108" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>123</v>
       </c>
@@ -4665,7 +4668,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>124</v>
       </c>
@@ -4695,7 +4698,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>125</v>
       </c>
@@ -4725,7 +4728,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>126</v>
       </c>
@@ -4755,15 +4758,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B113" s="2">
-        <v>44476.532372685186</v>
+        <v>44477.682314814818</v>
       </c>
       <c r="C113" s="2">
-        <v>44476.532777777778</v>
+        <v>44477.682453703703</v>
       </c>
       <c r="D113" t="s">
         <v>13</v>
@@ -4778,14 +4781,14 @@
       <c r="H113" s="6">
         <v>7</v>
       </c>
-      <c r="I113" s="5" t="s">
-        <v>19</v>
+      <c r="I113" s="5">
+        <v>45</v>
       </c>
       <c r="J113" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>128</v>
       </c>
@@ -4815,15 +4818,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="B115" s="2">
-        <v>44476.568298611113</v>
+        <v>44477.682314814818</v>
       </c>
       <c r="C115" s="2">
-        <v>44476.568483796298</v>
+        <v>44477.682453703703</v>
       </c>
       <c r="D115" t="s">
         <v>13</v>
@@ -4838,14 +4841,14 @@
       <c r="H115" s="6">
         <v>7</v>
       </c>
-      <c r="I115" s="5" t="s">
-        <v>22</v>
+      <c r="I115" s="6">
+        <v>14</v>
       </c>
       <c r="J115" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>130</v>
       </c>
@@ -4875,15 +4878,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>131</v>
+        <v>49</v>
       </c>
       <c r="B117" s="2">
-        <v>44477.682083333333</v>
+        <v>44476.568298611113</v>
       </c>
       <c r="C117" s="2">
-        <v>44477.682291666664</v>
+        <v>44476.568483796298</v>
       </c>
       <c r="D117" t="s">
         <v>13</v>
@@ -4898,22 +4901,22 @@
       <c r="H117" s="6">
         <v>7</v>
       </c>
-      <c r="I117" s="5" t="s">
-        <v>16</v>
+      <c r="I117" s="6">
+        <v>11</v>
       </c>
       <c r="J117" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="B118" s="2">
-        <v>44477.682314814818</v>
+        <v>44477.692893518521</v>
       </c>
       <c r="C118" s="2">
-        <v>44477.682453703703</v>
+        <v>44477.693032407406</v>
       </c>
       <c r="D118" t="s">
         <v>13</v>
@@ -4928,14 +4931,14 @@
       <c r="H118" s="6">
         <v>7</v>
       </c>
-      <c r="I118" s="5" t="s">
-        <v>19</v>
+      <c r="I118" s="5">
+        <v>9</v>
       </c>
       <c r="J118" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>133</v>
       </c>
@@ -4965,7 +4968,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>134</v>
       </c>
@@ -4995,15 +4998,15 @@
         <v>139</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="B121" s="2">
-        <v>44477.682476851849</v>
+        <v>44476.535937499997</v>
       </c>
       <c r="C121" s="2">
-        <v>44477.682800925926</v>
+        <v>44476.536435185182</v>
       </c>
       <c r="D121" t="s">
         <v>13</v>
@@ -5018,14 +5021,14 @@
       <c r="H121" s="6">
         <v>7</v>
       </c>
-      <c r="I121" s="5" t="s">
-        <v>22</v>
+      <c r="I121" s="5">
+        <v>9</v>
       </c>
       <c r="J121" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>136</v>
       </c>
@@ -5055,7 +5058,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>137</v>
       </c>
@@ -5085,7 +5088,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>138</v>
       </c>
@@ -5115,9 +5118,9 @@
         <v>143</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="B125" s="2">
         <v>44476.532372685186</v>
@@ -5138,14 +5141,14 @@
       <c r="H125" s="6">
         <v>7</v>
       </c>
-      <c r="I125" s="5" t="s">
-        <v>22</v>
+      <c r="I125" s="5">
+        <v>9</v>
       </c>
       <c r="J125" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>140</v>
       </c>

--- a/0_Configuration/Foundation/Dummy_survey_data.xlsx
+++ b/0_Configuration/Foundation/Dummy_survey_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/royuijtendaal_tudelft_nl/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uijte\Desktop\Earthy\Earthy4.2\0_Configuration\Foundation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="229" documentId="11_BC306F1EC3D654026F15A6DB943E8C1851039F55" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FE1F1D8-6E8C-4054-974F-19F0CCDBE40B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{395C2256-FE35-43AA-878A-76F871313DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="142">
   <si>
     <t>TVJuCSlpMECM04q0LeCIewSGhfaBZ39GnlLa7HxNxghURTFPTUZUMkZGRTBIUk5WM1Y0SENZR0NMNi4u</t>
   </si>
@@ -87,33 +87,21 @@
     <t>Daily</t>
   </si>
   <si>
-    <t>36</t>
-  </si>
-  <si>
     <t>Bierocracy</t>
   </si>
   <si>
     <t>Shop</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>Roy</t>
   </si>
   <si>
     <t>Workshop</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
     <t>John</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
     <t>Floor</t>
   </si>
   <si>
@@ -135,9 +123,6 @@
     <t>Mary</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>Olivia</t>
   </si>
   <si>
@@ -475,6 +460,9 @@
   </si>
   <si>
     <t>Hamish</t>
+  </si>
+  <si>
+    <t>Bob</t>
   </si>
 </sst>
 </file>
@@ -1409,10 +1397,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0664D784-8D36-45F1-B113-7E81F546C508}">
-  <dimension ref="A1:J126"/>
+  <dimension ref="A1:J132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1485,13 +1473,13 @@
         <v>15</v>
       </c>
       <c r="H3" s="4">
-        <v>9</v>
-      </c>
-      <c r="I3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="5">
+        <v>54</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1508,19 +1496,19 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="4">
+        <v>7</v>
+      </c>
+      <c r="I4" s="5">
+        <v>45</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1537,19 +1525,19 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="4">
-        <v>1</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
+      </c>
+      <c r="I5" s="5">
+        <v>18</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1566,19 +1554,19 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="4">
-        <v>12</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>24</v>
+        <v>7</v>
+      </c>
+      <c r="I6" s="5">
+        <v>27</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1595,19 +1583,19 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H7" s="4">
-        <v>2</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
+      </c>
+      <c r="I7" s="5">
+        <v>54</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>27</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1632,11 +1620,11 @@
       <c r="H8" s="4">
         <v>7</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="5">
+        <v>27</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1653,19 +1641,19 @@
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="4">
-        <v>1</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>16</v>
+        <v>7</v>
+      </c>
+      <c r="I9" s="5">
+        <v>36</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1682,19 +1670,19 @@
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="4">
+        <v>7</v>
+      </c>
+      <c r="I10" s="5">
+        <v>9</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="H10" s="4">
-        <v>2</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1711,19 +1699,19 @@
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="4">
-        <v>1</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
+      </c>
+      <c r="I11" s="5">
+        <v>54</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1743,16 +1731,16 @@
         <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="H12" s="4">
+        <v>7</v>
+      </c>
+      <c r="I12" s="5">
+        <v>18</v>
+      </c>
       <c r="J12" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1775,14 +1763,14 @@
       <c r="G13" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="4">
         <v>7</v>
       </c>
       <c r="I13" s="6">
         <v>9</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1800,19 +1788,19 @@
       </c>
       <c r="E14" s="3"/>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="6">
-        <v>7</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="H14" s="4">
+        <v>7</v>
+      </c>
+      <c r="I14" s="5">
+        <v>36</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1830,19 +1818,19 @@
       </c>
       <c r="E15" s="3"/>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G15" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="6">
-        <v>7</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>19</v>
+      <c r="H15" s="4">
+        <v>7</v>
+      </c>
+      <c r="I15" s="5">
+        <v>54</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1860,19 +1848,19 @@
       </c>
       <c r="E16" s="3"/>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G16" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="6">
-        <v>7</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>22</v>
+      <c r="H16" s="4">
+        <v>7</v>
+      </c>
+      <c r="I16" s="5">
+        <v>45</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1890,19 +1878,19 @@
       </c>
       <c r="E17" s="3"/>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="6">
-        <v>7</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="H17" s="4">
+        <v>7</v>
+      </c>
+      <c r="I17" s="5">
+        <v>27</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1925,14 +1913,14 @@
       <c r="G18" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="6">
-        <v>7</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>22</v>
+      <c r="H18" s="4">
+        <v>7</v>
+      </c>
+      <c r="I18" s="5">
+        <v>18</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1950,19 +1938,19 @@
       </c>
       <c r="E19" s="3"/>
       <c r="F19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="6">
-        <v>7</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>24</v>
+      <c r="H19" s="4">
+        <v>7</v>
+      </c>
+      <c r="I19" s="5">
+        <v>27</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1980,19 +1968,19 @@
       </c>
       <c r="E20" s="3"/>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="6">
-        <v>7</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="H20" s="4">
+        <v>7</v>
+      </c>
+      <c r="I20" s="5">
+        <v>36</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -2010,19 +1998,19 @@
       </c>
       <c r="E21" s="3"/>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G21" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="6">
-        <v>7</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>19</v>
+      <c r="H21" s="4">
+        <v>7</v>
+      </c>
+      <c r="I21" s="5">
+        <v>9</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -2043,16 +2031,16 @@
         <v>14</v>
       </c>
       <c r="G22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" s="6">
-        <v>7</v>
-      </c>
-      <c r="I22" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="H22" s="4">
+        <v>7</v>
+      </c>
+      <c r="I22" s="5">
+        <v>54</v>
+      </c>
       <c r="J22" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -2070,19 +2058,19 @@
       </c>
       <c r="E23" s="3"/>
       <c r="F23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="4">
+        <v>7</v>
+      </c>
+      <c r="I23" s="5">
         <v>18</v>
       </c>
-      <c r="G23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="6">
-        <v>7</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -2100,19 +2088,19 @@
       </c>
       <c r="E24" s="3"/>
       <c r="F24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G24" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="4">
         <v>7</v>
       </c>
       <c r="I24" s="6">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -2130,19 +2118,19 @@
       </c>
       <c r="E25" s="3"/>
       <c r="F25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G25" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="6">
-        <v>7</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>16</v>
+      <c r="H25" s="4">
+        <v>7</v>
+      </c>
+      <c r="I25" s="5">
+        <v>36</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -2160,19 +2148,19 @@
       </c>
       <c r="E26" s="3"/>
       <c r="F26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G26" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="6">
-        <v>7</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>19</v>
+      <c r="H26" s="4">
+        <v>7</v>
+      </c>
+      <c r="I26" s="5">
+        <v>9</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -2193,16 +2181,16 @@
         <v>14</v>
       </c>
       <c r="G27" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" s="6">
-        <v>7</v>
-      </c>
-      <c r="I27" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="H27" s="4">
+        <v>7</v>
+      </c>
+      <c r="I27" s="5">
+        <v>45</v>
+      </c>
       <c r="J27" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -2220,19 +2208,19 @@
       </c>
       <c r="E28" s="3"/>
       <c r="F28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G28" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="6">
-        <v>7</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>24</v>
+      <c r="H28" s="4">
+        <v>7</v>
+      </c>
+      <c r="I28" s="5">
+        <v>54</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -2250,19 +2238,19 @@
       </c>
       <c r="E29" s="3"/>
       <c r="F29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="4">
+        <v>7</v>
+      </c>
+      <c r="I29" s="5">
         <v>18</v>
       </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="6">
-        <v>7</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="J29" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -2280,19 +2268,19 @@
       </c>
       <c r="E30" s="3"/>
       <c r="F30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G30" t="s">
-        <v>26</v>
-      </c>
-      <c r="H30" s="6">
-        <v>7</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="H30" s="4">
+        <v>7</v>
+      </c>
+      <c r="I30" s="5">
+        <v>27</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -2315,14 +2303,14 @@
       <c r="G31" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="6">
-        <v>7</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>16</v>
+      <c r="H31" s="4">
+        <v>7</v>
+      </c>
+      <c r="I31" s="5">
+        <v>36</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -2343,16 +2331,16 @@
         <v>14</v>
       </c>
       <c r="G32" t="s">
-        <v>26</v>
-      </c>
-      <c r="H32" s="6">
-        <v>7</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="H32" s="4">
+        <v>7</v>
+      </c>
+      <c r="I32" s="5">
+        <v>54</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -2370,19 +2358,19 @@
       </c>
       <c r="E33" s="3"/>
       <c r="F33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="4">
+        <v>7</v>
+      </c>
+      <c r="I33" s="5">
         <v>18</v>
       </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="6">
-        <v>7</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="J33" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -2400,19 +2388,19 @@
       </c>
       <c r="E34" s="3"/>
       <c r="F34" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G34" t="s">
         <v>15</v>
       </c>
-      <c r="H34" s="6">
-        <v>7</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>22</v>
+      <c r="H34" s="4">
+        <v>7</v>
+      </c>
+      <c r="I34" s="5">
+        <v>18</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -2430,7 +2418,7 @@
       </c>
       <c r="E35" s="3"/>
       <c r="F35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G35" t="s">
         <v>15</v>
@@ -2439,10 +2427,10 @@
         <v>7</v>
       </c>
       <c r="I35" s="6">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -2460,19 +2448,19 @@
       </c>
       <c r="E36" s="3"/>
       <c r="F36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G36" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H36" s="6">
         <v>7</v>
       </c>
-      <c r="I36" s="5" t="s">
-        <v>16</v>
+      <c r="I36" s="5">
+        <v>36</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -2493,16 +2481,16 @@
         <v>14</v>
       </c>
       <c r="G37" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H37" s="6">
         <v>7</v>
       </c>
-      <c r="I37" s="5" t="s">
-        <v>19</v>
+      <c r="I37" s="5">
+        <v>9</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -2520,7 +2508,7 @@
       </c>
       <c r="E38" s="3"/>
       <c r="F38" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G38" t="s">
         <v>15</v>
@@ -2528,11 +2516,11 @@
       <c r="H38" s="6">
         <v>7</v>
       </c>
-      <c r="I38" s="5" t="s">
-        <v>22</v>
+      <c r="I38" s="5">
+        <v>18</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -2550,19 +2538,19 @@
       </c>
       <c r="E39" s="3"/>
       <c r="F39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G39" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H39" s="6">
         <v>7</v>
       </c>
-      <c r="I39" s="5" t="s">
-        <v>24</v>
+      <c r="I39" s="5">
+        <v>54</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -2580,19 +2568,19 @@
       </c>
       <c r="E40" s="3"/>
       <c r="F40" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" s="6">
+        <v>7</v>
+      </c>
+      <c r="I40" s="5">
         <v>18</v>
       </c>
-      <c r="G40" t="s">
-        <v>26</v>
-      </c>
-      <c r="H40" s="6">
-        <v>7</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="J40" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -2618,11 +2606,11 @@
       <c r="H41" s="6">
         <v>7</v>
       </c>
-      <c r="I41" s="5" t="s">
-        <v>24</v>
+      <c r="I41" s="5">
+        <v>27</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -2640,19 +2628,19 @@
       </c>
       <c r="E42" s="3"/>
       <c r="F42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G42" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H42" s="6">
         <v>7</v>
       </c>
-      <c r="I42" s="5" t="s">
-        <v>16</v>
+      <c r="I42" s="5">
+        <v>9</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -2670,7 +2658,7 @@
       </c>
       <c r="E43" s="3"/>
       <c r="F43" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G43" t="s">
         <v>15</v>
@@ -2678,11 +2666,11 @@
       <c r="H43" s="6">
         <v>7</v>
       </c>
-      <c r="I43" s="5" t="s">
-        <v>19</v>
+      <c r="I43" s="5">
+        <v>9</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -2700,19 +2688,19 @@
       </c>
       <c r="E44" s="3"/>
       <c r="F44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="6">
+        <v>7</v>
+      </c>
+      <c r="I44" s="5">
         <v>18</v>
       </c>
-      <c r="G44" t="s">
-        <v>15</v>
-      </c>
-      <c r="H44" s="6">
-        <v>7</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="J44" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -2730,7 +2718,7 @@
       </c>
       <c r="E45" s="3"/>
       <c r="F45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G45" t="s">
         <v>15</v>
@@ -2738,11 +2726,11 @@
       <c r="H45" s="6">
         <v>7</v>
       </c>
-      <c r="I45" s="5" t="s">
-        <v>22</v>
+      <c r="I45" s="5">
+        <v>54</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -2769,10 +2757,10 @@
         <v>7</v>
       </c>
       <c r="I46" s="6">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -2790,19 +2778,19 @@
       </c>
       <c r="E47" s="3"/>
       <c r="F47" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G47" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H47" s="6">
         <v>7</v>
       </c>
-      <c r="I47" s="5" t="s">
-        <v>16</v>
+      <c r="I47" s="5">
+        <v>36</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -2820,7 +2808,7 @@
       </c>
       <c r="E48" s="3"/>
       <c r="F48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G48" t="s">
         <v>15</v>
@@ -2828,11 +2816,11 @@
       <c r="H48" s="6">
         <v>7</v>
       </c>
-      <c r="I48" s="5" t="s">
-        <v>19</v>
+      <c r="I48" s="5">
+        <v>9</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -2850,19 +2838,19 @@
       </c>
       <c r="E49" s="3"/>
       <c r="F49" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="6">
+        <v>7</v>
+      </c>
+      <c r="I49" s="5">
         <v>18</v>
       </c>
-      <c r="G49" t="s">
-        <v>15</v>
-      </c>
-      <c r="H49" s="6">
-        <v>7</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="J49" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -2883,16 +2871,16 @@
         <v>14</v>
       </c>
       <c r="G50" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H50" s="6">
         <v>7</v>
       </c>
-      <c r="I50" s="5" t="s">
-        <v>24</v>
+      <c r="I50" s="5">
+        <v>27</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -2918,11 +2906,11 @@
       <c r="H51" s="6">
         <v>7</v>
       </c>
-      <c r="I51" s="5" t="s">
-        <v>22</v>
+      <c r="I51" s="5">
+        <v>54</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -2940,19 +2928,19 @@
       </c>
       <c r="E52" s="3"/>
       <c r="F52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G52" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H52" s="6">
         <v>7</v>
       </c>
-      <c r="I52" s="5" t="s">
-        <v>24</v>
+      <c r="I52" s="5">
+        <v>27</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -2970,7 +2958,7 @@
       </c>
       <c r="E53" s="3"/>
       <c r="F53" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G53" t="s">
         <v>15</v>
@@ -2978,11 +2966,11 @@
       <c r="H53" s="6">
         <v>7</v>
       </c>
-      <c r="I53" s="5" t="s">
-        <v>16</v>
+      <c r="I53" s="5">
+        <v>36</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -3000,7 +2988,7 @@
       </c>
       <c r="E54" s="3"/>
       <c r="F54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G54" t="s">
         <v>15</v>
@@ -3008,11 +2996,11 @@
       <c r="H54" s="6">
         <v>7</v>
       </c>
-      <c r="I54" s="5" t="s">
-        <v>19</v>
+      <c r="I54" s="5">
+        <v>9</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -3030,19 +3018,19 @@
       </c>
       <c r="E55" s="3"/>
       <c r="F55" t="s">
+        <v>17</v>
+      </c>
+      <c r="G55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" s="6">
+        <v>7</v>
+      </c>
+      <c r="I55" s="5">
         <v>18</v>
       </c>
-      <c r="G55" t="s">
-        <v>15</v>
-      </c>
-      <c r="H55" s="6">
-        <v>7</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="J55" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -3068,11 +3056,11 @@
       <c r="H56" s="6">
         <v>7</v>
       </c>
-      <c r="I56" s="5" t="s">
-        <v>22</v>
+      <c r="I56" s="5">
+        <v>18</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -3090,19 +3078,19 @@
       </c>
       <c r="E57" s="3"/>
       <c r="F57" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G57" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H57" s="6">
         <v>7</v>
       </c>
       <c r="I57" s="6">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -3120,7 +3108,7 @@
       </c>
       <c r="E58" s="3"/>
       <c r="F58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G58" t="s">
         <v>15</v>
@@ -3128,11 +3116,11 @@
       <c r="H58" s="6">
         <v>7</v>
       </c>
-      <c r="I58" s="5" t="s">
-        <v>16</v>
+      <c r="I58" s="5">
+        <v>45</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -3150,7 +3138,7 @@
       </c>
       <c r="E59" s="3"/>
       <c r="F59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G59" t="s">
         <v>15</v>
@@ -3158,11 +3146,11 @@
       <c r="H59" s="6">
         <v>7</v>
       </c>
-      <c r="I59" s="5" t="s">
-        <v>19</v>
+      <c r="I59" s="5">
+        <v>9</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -3183,16 +3171,16 @@
         <v>14</v>
       </c>
       <c r="G60" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H60" s="6">
         <v>7</v>
       </c>
-      <c r="I60" s="5" t="s">
-        <v>22</v>
+      <c r="I60" s="5">
+        <v>18</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -3210,7 +3198,7 @@
       </c>
       <c r="E61" s="3"/>
       <c r="F61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G61" t="s">
         <v>15</v>
@@ -3222,7 +3210,7 @@
         <v>9</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -3240,19 +3228,19 @@
       </c>
       <c r="E62" s="3"/>
       <c r="F62" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G62" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H62" s="6">
         <v>7</v>
       </c>
-      <c r="I62" s="5" t="s">
-        <v>22</v>
+      <c r="I62" s="5">
+        <v>18</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -3270,19 +3258,19 @@
       </c>
       <c r="E63" s="3"/>
       <c r="F63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G63" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H63" s="6">
         <v>7</v>
       </c>
-      <c r="I63" s="5" t="s">
-        <v>24</v>
+      <c r="I63" s="5">
+        <v>54</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -3300,19 +3288,19 @@
       </c>
       <c r="E64" s="3"/>
       <c r="F64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G64" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H64" s="6">
         <v>7</v>
       </c>
-      <c r="I64" s="5" t="s">
-        <v>16</v>
+      <c r="I64" s="5">
+        <v>36</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -3338,11 +3326,11 @@
       <c r="H65" s="6">
         <v>7</v>
       </c>
-      <c r="I65" s="5" t="s">
-        <v>19</v>
+      <c r="I65" s="5">
+        <v>9</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -3360,7 +3348,7 @@
       </c>
       <c r="E66" s="3"/>
       <c r="F66" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G66" t="s">
         <v>15</v>
@@ -3368,11 +3356,11 @@
       <c r="H66" s="6">
         <v>7</v>
       </c>
-      <c r="I66" s="5" t="s">
-        <v>22</v>
+      <c r="I66" s="5">
+        <v>54</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -3390,19 +3378,19 @@
       </c>
       <c r="E67" s="3"/>
       <c r="F67" t="s">
+        <v>17</v>
+      </c>
+      <c r="G67" t="s">
+        <v>22</v>
+      </c>
+      <c r="H67" s="6">
+        <v>7</v>
+      </c>
+      <c r="I67" s="5">
         <v>18</v>
       </c>
-      <c r="G67" t="s">
-        <v>26</v>
-      </c>
-      <c r="H67" s="6">
-        <v>7</v>
-      </c>
-      <c r="I67" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="J67" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -3420,7 +3408,7 @@
       </c>
       <c r="E68" s="3"/>
       <c r="F68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G68" t="s">
         <v>15</v>
@@ -3429,10 +3417,10 @@
         <v>7</v>
       </c>
       <c r="I68" s="6">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -3458,11 +3446,11 @@
       <c r="H69" s="6">
         <v>7</v>
       </c>
-      <c r="I69" s="5" t="s">
-        <v>16</v>
+      <c r="I69" s="5">
+        <v>36</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -3483,16 +3471,16 @@
         <v>14</v>
       </c>
       <c r="G70" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H70" s="6">
         <v>7</v>
       </c>
-      <c r="I70" s="5" t="s">
-        <v>19</v>
+      <c r="I70" s="5">
+        <v>45</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -3510,19 +3498,19 @@
       </c>
       <c r="E71" s="3"/>
       <c r="F71" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" s="6">
+        <v>7</v>
+      </c>
+      <c r="I71" s="5">
         <v>18</v>
       </c>
-      <c r="G71" t="s">
-        <v>15</v>
-      </c>
-      <c r="H71" s="6">
-        <v>7</v>
-      </c>
-      <c r="I71" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="J71" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -3540,19 +3528,19 @@
       </c>
       <c r="E72" s="3"/>
       <c r="F72" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G72" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H72" s="6">
         <v>7</v>
       </c>
-      <c r="I72" s="5" t="s">
-        <v>24</v>
+      <c r="I72" s="5">
+        <v>27</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -3570,19 +3558,19 @@
       </c>
       <c r="E73" s="3"/>
       <c r="F73" t="s">
+        <v>17</v>
+      </c>
+      <c r="G73" t="s">
+        <v>15</v>
+      </c>
+      <c r="H73" s="6">
+        <v>7</v>
+      </c>
+      <c r="I73" s="5">
         <v>18</v>
       </c>
-      <c r="G73" t="s">
-        <v>15</v>
-      </c>
-      <c r="H73" s="6">
-        <v>7</v>
-      </c>
-      <c r="I73" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="J73" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -3600,7 +3588,7 @@
       </c>
       <c r="E74" s="3"/>
       <c r="F74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G74" t="s">
         <v>15</v>
@@ -3609,10 +3597,10 @@
         <v>7</v>
       </c>
       <c r="I74" s="5">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -3638,11 +3626,11 @@
       <c r="H75" s="6">
         <v>7</v>
       </c>
-      <c r="I75" s="5" t="s">
-        <v>16</v>
+      <c r="I75" s="5">
+        <v>36</v>
       </c>
       <c r="J75" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
@@ -3660,7 +3648,7 @@
       </c>
       <c r="E76" s="3"/>
       <c r="F76" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G76" t="s">
         <v>15</v>
@@ -3668,11 +3656,11 @@
       <c r="H76" s="6">
         <v>7</v>
       </c>
-      <c r="I76" s="5" t="s">
-        <v>19</v>
+      <c r="I76" s="5">
+        <v>9</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -3690,10 +3678,10 @@
       </c>
       <c r="E77" s="3"/>
       <c r="F77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G77" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H77" s="6">
         <v>7</v>
@@ -3702,7 +3690,7 @@
         <v>9</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -3720,19 +3708,19 @@
       </c>
       <c r="E78" s="3"/>
       <c r="F78" t="s">
+        <v>17</v>
+      </c>
+      <c r="G78" t="s">
+        <v>15</v>
+      </c>
+      <c r="H78" s="6">
+        <v>7</v>
+      </c>
+      <c r="I78" s="5">
         <v>18</v>
       </c>
-      <c r="G78" t="s">
-        <v>15</v>
-      </c>
-      <c r="H78" s="6">
-        <v>7</v>
-      </c>
-      <c r="I78" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="J78" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -3759,10 +3747,10 @@
         <v>7</v>
       </c>
       <c r="I79" s="6">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
@@ -3780,19 +3768,19 @@
       </c>
       <c r="E80" s="3"/>
       <c r="F80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G80" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H80" s="6">
         <v>7</v>
       </c>
-      <c r="I80" s="5" t="s">
-        <v>16</v>
+      <c r="I80" s="5">
+        <v>36</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
@@ -3810,7 +3798,7 @@
       </c>
       <c r="E81" s="3"/>
       <c r="F81" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G81" t="s">
         <v>15</v>
@@ -3818,11 +3806,11 @@
       <c r="H81" s="6">
         <v>7</v>
       </c>
-      <c r="I81" s="5" t="s">
-        <v>19</v>
+      <c r="I81" s="5">
+        <v>54</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
@@ -3840,19 +3828,19 @@
       </c>
       <c r="E82" s="3"/>
       <c r="F82" t="s">
+        <v>17</v>
+      </c>
+      <c r="G82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H82" s="6">
+        <v>7</v>
+      </c>
+      <c r="I82" s="5">
         <v>18</v>
       </c>
-      <c r="G82" t="s">
-        <v>26</v>
-      </c>
-      <c r="H82" s="6">
-        <v>7</v>
-      </c>
-      <c r="I82" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="J82" s="6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
@@ -3870,7 +3858,7 @@
       </c>
       <c r="E83" s="3"/>
       <c r="F83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G83" t="s">
         <v>15</v>
@@ -3882,7 +3870,7 @@
         <v>9</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
@@ -3908,11 +3896,11 @@
       <c r="H84" s="6">
         <v>7</v>
       </c>
-      <c r="I84" s="5" t="s">
-        <v>22</v>
+      <c r="I84" s="5">
+        <v>18</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
@@ -3930,7 +3918,7 @@
       </c>
       <c r="E85" s="3"/>
       <c r="F85" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G85" t="s">
         <v>15</v>
@@ -3938,11 +3926,11 @@
       <c r="H85" s="6">
         <v>7</v>
       </c>
-      <c r="I85" s="5" t="s">
-        <v>24</v>
+      <c r="I85" s="5">
+        <v>27</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
@@ -3960,7 +3948,7 @@
       </c>
       <c r="E86" s="3"/>
       <c r="F86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G86" t="s">
         <v>15</v>
@@ -3968,11 +3956,11 @@
       <c r="H86" s="6">
         <v>7</v>
       </c>
-      <c r="I86" s="5" t="s">
-        <v>16</v>
+      <c r="I86" s="5">
+        <v>36</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
@@ -3990,19 +3978,19 @@
       </c>
       <c r="E87" s="3"/>
       <c r="F87" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G87" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H87" s="6">
         <v>7</v>
       </c>
-      <c r="I87" s="5" t="s">
-        <v>19</v>
+      <c r="I87" s="5">
+        <v>9</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
@@ -4023,16 +4011,16 @@
         <v>14</v>
       </c>
       <c r="G88" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H88" s="6">
         <v>7</v>
       </c>
-      <c r="I88" s="5" t="s">
-        <v>22</v>
+      <c r="I88" s="5">
+        <v>54</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
@@ -4058,11 +4046,11 @@
       <c r="H89" s="6">
         <v>7</v>
       </c>
-      <c r="I89" s="5" t="s">
-        <v>22</v>
+      <c r="I89" s="5">
+        <v>18</v>
       </c>
       <c r="J89" s="6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
@@ -4080,19 +4068,19 @@
       </c>
       <c r="E90" s="3"/>
       <c r="F90" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G90" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H90" s="6">
         <v>7</v>
       </c>
       <c r="I90" s="6">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="J90" s="6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
@@ -4110,7 +4098,7 @@
       </c>
       <c r="E91" s="3"/>
       <c r="F91" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G91" t="s">
         <v>15</v>
@@ -4118,11 +4106,11 @@
       <c r="H91" s="6">
         <v>7</v>
       </c>
-      <c r="I91" s="5" t="s">
-        <v>16</v>
+      <c r="I91" s="5">
+        <v>36</v>
       </c>
       <c r="J91" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
@@ -4140,19 +4128,19 @@
       </c>
       <c r="E92" s="3"/>
       <c r="F92" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G92" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H92" s="6">
         <v>7</v>
       </c>
-      <c r="I92" s="5" t="s">
-        <v>19</v>
+      <c r="I92" s="5">
+        <v>9</v>
       </c>
       <c r="J92" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
@@ -4170,7 +4158,7 @@
       </c>
       <c r="E93" s="3"/>
       <c r="F93" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G93" t="s">
         <v>15</v>
@@ -4178,11 +4166,11 @@
       <c r="H93" s="6">
         <v>7</v>
       </c>
-      <c r="I93" s="5" t="s">
-        <v>22</v>
+      <c r="I93" s="5">
+        <v>54</v>
       </c>
       <c r="J93" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
@@ -4208,11 +4196,11 @@
       <c r="H94" s="6">
         <v>7</v>
       </c>
-      <c r="I94" s="5" t="s">
-        <v>24</v>
+      <c r="I94" s="5">
+        <v>27</v>
       </c>
       <c r="J94" s="6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
@@ -4238,11 +4226,11 @@
       <c r="H95" s="4">
         <v>7</v>
       </c>
-      <c r="I95" s="5" t="s">
-        <v>16</v>
+      <c r="I95" s="5">
+        <v>36</v>
       </c>
       <c r="J95" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
@@ -4260,7 +4248,7 @@
       </c>
       <c r="E96" s="3"/>
       <c r="F96" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G96" t="s">
         <v>15</v>
@@ -4268,11 +4256,11 @@
       <c r="H96" s="4">
         <v>7</v>
       </c>
-      <c r="I96" s="5" t="s">
-        <v>19</v>
+      <c r="I96" s="5">
+        <v>9</v>
       </c>
       <c r="J96" s="6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
@@ -4290,7 +4278,7 @@
       </c>
       <c r="E97" s="3"/>
       <c r="F97" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G97" t="s">
         <v>15</v>
@@ -4298,11 +4286,11 @@
       <c r="H97" s="4">
         <v>7</v>
       </c>
-      <c r="I97" s="5" t="s">
-        <v>22</v>
+      <c r="I97" s="5">
+        <v>18</v>
       </c>
       <c r="J97" s="6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
@@ -4320,19 +4308,19 @@
       </c>
       <c r="E98" s="3"/>
       <c r="F98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G98" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H98" s="4">
         <v>7</v>
       </c>
-      <c r="I98" s="5" t="s">
-        <v>24</v>
+      <c r="I98" s="5">
+        <v>27</v>
       </c>
       <c r="J98" s="6" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
@@ -4350,19 +4338,19 @@
       </c>
       <c r="E99" s="3"/>
       <c r="F99" t="s">
+        <v>17</v>
+      </c>
+      <c r="G99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H99" s="4">
+        <v>7</v>
+      </c>
+      <c r="I99" s="5">
         <v>18</v>
       </c>
-      <c r="G99" t="s">
-        <v>26</v>
-      </c>
-      <c r="H99" s="4">
-        <v>7</v>
-      </c>
-      <c r="I99" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="J99" s="6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
@@ -4388,11 +4376,11 @@
       <c r="H100" s="4">
         <v>7</v>
       </c>
-      <c r="I100" s="5" t="s">
-        <v>24</v>
+      <c r="I100" s="5">
+        <v>45</v>
       </c>
       <c r="J100" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
@@ -4410,7 +4398,7 @@
       </c>
       <c r="E101" s="3"/>
       <c r="F101" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G101" t="s">
         <v>15</v>
@@ -4418,11 +4406,11 @@
       <c r="H101" s="4">
         <v>7</v>
       </c>
-      <c r="I101" s="5" t="s">
-        <v>16</v>
+      <c r="I101" s="5">
+        <v>36</v>
       </c>
       <c r="J101" s="6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
@@ -4440,19 +4428,19 @@
       </c>
       <c r="E102" s="3"/>
       <c r="F102" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G102" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H102" s="4">
         <v>7</v>
       </c>
-      <c r="I102" s="5" t="s">
-        <v>19</v>
+      <c r="I102" s="5">
+        <v>54</v>
       </c>
       <c r="J102" s="6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
@@ -4470,19 +4458,19 @@
       </c>
       <c r="E103" s="3"/>
       <c r="F103" t="s">
+        <v>17</v>
+      </c>
+      <c r="G103" t="s">
+        <v>15</v>
+      </c>
+      <c r="H103" s="4">
+        <v>7</v>
+      </c>
+      <c r="I103" s="5">
         <v>18</v>
       </c>
-      <c r="G103" t="s">
-        <v>15</v>
-      </c>
-      <c r="H103" s="4">
-        <v>7</v>
-      </c>
-      <c r="I103" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="J103" s="6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
@@ -4503,16 +4491,16 @@
         <v>14</v>
       </c>
       <c r="G104" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H104" s="5">
         <v>7</v>
       </c>
-      <c r="I104" s="5" t="s">
-        <v>22</v>
+      <c r="I104" s="5">
+        <v>18</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
@@ -4542,7 +4530,7 @@
         <v>9</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
@@ -4560,19 +4548,19 @@
       </c>
       <c r="E106" s="3"/>
       <c r="F106" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G106" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H106" s="6">
         <v>7</v>
       </c>
-      <c r="I106" s="5" t="s">
-        <v>16</v>
+      <c r="I106" s="5">
+        <v>36</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
@@ -4590,7 +4578,7 @@
       </c>
       <c r="E107" s="3"/>
       <c r="F107" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G107" t="s">
         <v>15</v>
@@ -4598,11 +4586,11 @@
       <c r="H107" s="6">
         <v>7</v>
       </c>
-      <c r="I107" s="5" t="s">
-        <v>19</v>
+      <c r="I107" s="5">
+        <v>9</v>
       </c>
       <c r="J107" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
@@ -4620,19 +4608,19 @@
       </c>
       <c r="E108" s="3"/>
       <c r="F108" t="s">
+        <v>17</v>
+      </c>
+      <c r="G108" t="s">
+        <v>15</v>
+      </c>
+      <c r="H108" s="6">
+        <v>7</v>
+      </c>
+      <c r="I108" s="5">
         <v>18</v>
       </c>
-      <c r="G108" t="s">
-        <v>15</v>
-      </c>
-      <c r="H108" s="6">
-        <v>7</v>
-      </c>
-      <c r="I108" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="J108" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
@@ -4650,19 +4638,19 @@
       </c>
       <c r="E109" s="3"/>
       <c r="F109" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G109" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H109" s="6">
         <v>7</v>
       </c>
-      <c r="I109" s="5" t="s">
-        <v>24</v>
+      <c r="I109" s="5">
+        <v>27</v>
       </c>
       <c r="J109" s="6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
@@ -4688,11 +4676,11 @@
       <c r="H110" s="6">
         <v>7</v>
       </c>
-      <c r="I110" s="5" t="s">
-        <v>22</v>
+      <c r="I110" s="5">
+        <v>18</v>
       </c>
       <c r="J110" s="6" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
@@ -4710,7 +4698,7 @@
       </c>
       <c r="E111" s="3"/>
       <c r="F111" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G111" t="s">
         <v>15</v>
@@ -4718,11 +4706,11 @@
       <c r="H111" s="6">
         <v>7</v>
       </c>
-      <c r="I111" s="5" t="s">
-        <v>24</v>
+      <c r="I111" s="5">
+        <v>27</v>
       </c>
       <c r="J111" s="6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
@@ -4740,19 +4728,19 @@
       </c>
       <c r="E112" s="3"/>
       <c r="F112" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G112" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H112" s="6">
         <v>7</v>
       </c>
-      <c r="I112" s="5" t="s">
-        <v>16</v>
+      <c r="I112" s="5">
+        <v>54</v>
       </c>
       <c r="J112" s="6" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
@@ -4770,7 +4758,7 @@
       </c>
       <c r="E113" s="3"/>
       <c r="F113" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G113" t="s">
         <v>15</v>
@@ -4778,11 +4766,11 @@
       <c r="H113" s="6">
         <v>7</v>
       </c>
-      <c r="I113" s="5" t="s">
-        <v>19</v>
+      <c r="I113" s="5">
+        <v>9</v>
       </c>
       <c r="J113" s="6" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
@@ -4803,16 +4791,16 @@
         <v>14</v>
       </c>
       <c r="G114" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H114" s="6">
         <v>7</v>
       </c>
-      <c r="I114" s="5" t="s">
-        <v>22</v>
+      <c r="I114" s="5">
+        <v>45</v>
       </c>
       <c r="J114" s="6" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
@@ -4830,19 +4818,19 @@
       </c>
       <c r="E115" s="3"/>
       <c r="F115" t="s">
+        <v>17</v>
+      </c>
+      <c r="G115" t="s">
+        <v>15</v>
+      </c>
+      <c r="H115" s="6">
+        <v>7</v>
+      </c>
+      <c r="I115" s="5">
         <v>18</v>
       </c>
-      <c r="G115" t="s">
-        <v>15</v>
-      </c>
-      <c r="H115" s="6">
-        <v>7</v>
-      </c>
-      <c r="I115" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="J115" s="6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
@@ -4860,7 +4848,7 @@
       </c>
       <c r="E116" s="3"/>
       <c r="F116" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G116" t="s">
         <v>15</v>
@@ -4869,10 +4857,10 @@
         <v>7</v>
       </c>
       <c r="I116" s="6">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="J116" s="6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
@@ -4890,19 +4878,19 @@
       </c>
       <c r="E117" s="3"/>
       <c r="F117" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G117" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H117" s="6">
         <v>7</v>
       </c>
-      <c r="I117" s="5" t="s">
-        <v>16</v>
+      <c r="I117" s="5">
+        <v>36</v>
       </c>
       <c r="J117" s="6" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
@@ -4920,7 +4908,7 @@
       </c>
       <c r="E118" s="3"/>
       <c r="F118" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G118" t="s">
         <v>15</v>
@@ -4928,11 +4916,11 @@
       <c r="H118" s="6">
         <v>7</v>
       </c>
-      <c r="I118" s="5" t="s">
-        <v>19</v>
+      <c r="I118" s="5">
+        <v>9</v>
       </c>
       <c r="J118" s="6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
@@ -4953,16 +4941,16 @@
         <v>14</v>
       </c>
       <c r="G119" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H119" s="6">
         <v>7</v>
       </c>
-      <c r="I119" s="5" t="s">
-        <v>22</v>
+      <c r="I119" s="5">
+        <v>18</v>
       </c>
       <c r="J119" s="6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
@@ -4980,7 +4968,7 @@
       </c>
       <c r="E120" s="3"/>
       <c r="F120" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G120" t="s">
         <v>15</v>
@@ -4988,11 +4976,11 @@
       <c r="H120" s="6">
         <v>7</v>
       </c>
-      <c r="I120" s="5" t="s">
-        <v>24</v>
+      <c r="I120" s="5">
+        <v>27</v>
       </c>
       <c r="J120" s="6" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
@@ -5010,7 +4998,7 @@
       </c>
       <c r="E121" s="3"/>
       <c r="F121" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G121" t="s">
         <v>15</v>
@@ -5018,11 +5006,11 @@
       <c r="H121" s="6">
         <v>7</v>
       </c>
-      <c r="I121" s="5" t="s">
-        <v>22</v>
+      <c r="I121" s="5">
+        <v>54</v>
       </c>
       <c r="J121" s="6" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
@@ -5040,19 +5028,19 @@
       </c>
       <c r="E122" s="3"/>
       <c r="F122" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G122" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H122" s="6">
         <v>7</v>
       </c>
-      <c r="I122" s="5" t="s">
-        <v>24</v>
+      <c r="I122" s="5">
+        <v>27</v>
       </c>
       <c r="J122" s="6" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
@@ -5078,11 +5066,11 @@
       <c r="H123" s="6">
         <v>7</v>
       </c>
-      <c r="I123" s="5" t="s">
-        <v>16</v>
+      <c r="I123" s="5">
+        <v>36</v>
       </c>
       <c r="J123" s="6" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
@@ -5103,16 +5091,16 @@
         <v>14</v>
       </c>
       <c r="G124" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H124" s="6">
         <v>7</v>
       </c>
-      <c r="I124" s="5" t="s">
-        <v>19</v>
+      <c r="I124" s="5">
+        <v>9</v>
       </c>
       <c r="J124" s="6" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
@@ -5130,7 +5118,7 @@
       </c>
       <c r="E125" s="3"/>
       <c r="F125" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G125" t="s">
         <v>15</v>
@@ -5138,11 +5126,11 @@
       <c r="H125" s="6">
         <v>7</v>
       </c>
-      <c r="I125" s="5" t="s">
-        <v>22</v>
+      <c r="I125" s="5">
+        <v>54</v>
       </c>
       <c r="J125" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
@@ -5160,7 +5148,7 @@
       </c>
       <c r="E126" s="3"/>
       <c r="F126" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G126" t="s">
         <v>15</v>
@@ -5168,11 +5156,22 @@
       <c r="H126" s="6">
         <v>7</v>
       </c>
-      <c r="I126" s="5" t="s">
-        <v>22</v>
+      <c r="I126" s="5">
+        <v>18</v>
       </c>
       <c r="J126" s="6" t="s">
-        <v>145</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="130" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C130">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="132" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="I132">
+        <f>SUM(I3:I126)/9</f>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
